--- a/models/ATT2ITM/restaurants/gijon/d03aae52b0c40e4ae4e83bc1f01f1da0/att_text.xlsx
+++ b/models/ATT2ITM/restaurants/gijon/d03aae52b0c40e4ae4e83bc1f01f1da0/att_text.xlsx
@@ -926,34 +926,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.342529296875</v>
+        <v>0.18310546875</v>
       </c>
       <c r="C3">
-        <v>0.0638427734375</v>
+        <v>0.024139404296875</v>
       </c>
       <c r="D3">
-        <v>0.01288604736328125</v>
+        <v>0.0211639404296875</v>
       </c>
       <c r="E3">
-        <v>-0.26708984375</v>
+        <v>-0.032135009765625</v>
       </c>
       <c r="F3">
-        <v>0.0300140380859375</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="G3">
-        <v>-0.9228515625</v>
+        <v>-0.84423828125</v>
       </c>
       <c r="H3">
-        <v>0.031951904296875</v>
+        <v>0.049346923828125</v>
       </c>
       <c r="I3">
-        <v>0.0300140380859375</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="J3">
-        <v>0.137451171875</v>
+        <v>0.19873046875</v>
       </c>
       <c r="K3">
-        <v>0.935546875</v>
+        <v>0.7626953125</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -961,34 +961,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.261474609375</v>
+        <v>0.370849609375</v>
       </c>
       <c r="C4">
-        <v>-0.2021484375</v>
+        <v>-0.2476806640625</v>
       </c>
       <c r="D4">
-        <v>0.0848388671875</v>
+        <v>0.11956787109375</v>
       </c>
       <c r="E4">
-        <v>-0.286865234375</v>
+        <v>-0.32275390625</v>
       </c>
       <c r="F4">
-        <v>0.06378173828125</v>
+        <v>0.10235595703125</v>
       </c>
       <c r="G4">
-        <v>-0.95263671875</v>
+        <v>-0.9609375</v>
       </c>
       <c r="H4">
-        <v>-0.091796875</v>
+        <v>-0.12322998046875</v>
       </c>
       <c r="I4">
-        <v>0.06378173828125</v>
+        <v>0.10235595703125</v>
       </c>
       <c r="J4">
-        <v>0.05999755859375</v>
+        <v>0.0631103515625</v>
       </c>
       <c r="K4">
-        <v>-0.9482421875</v>
+        <v>-0.96923828125</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -996,34 +996,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.27392578125</v>
+        <v>0.145751953125</v>
       </c>
       <c r="C5">
-        <v>-0.02392578125</v>
+        <v>-0.004123687744140625</v>
       </c>
       <c r="D5">
-        <v>-0.0148773193359375</v>
+        <v>-0.04840087890625</v>
       </c>
       <c r="E5">
-        <v>0.1175537109375</v>
+        <v>0.2149658203125</v>
       </c>
       <c r="F5">
-        <v>0.11962890625</v>
+        <v>0.1883544921875</v>
       </c>
       <c r="G5">
-        <v>-0.95947265625</v>
+        <v>-0.68359375</v>
       </c>
       <c r="H5">
-        <v>0.0294036865234375</v>
+        <v>0.03924560546875</v>
       </c>
       <c r="I5">
-        <v>0.11962890625</v>
+        <v>0.1883544921875</v>
       </c>
       <c r="J5">
-        <v>0.2958984375</v>
+        <v>0.40576171875</v>
       </c>
       <c r="K5">
-        <v>0.5107421875</v>
+        <v>0.6806640625</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1031,34 +1031,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.19921875</v>
+        <v>-0.1947021484375</v>
       </c>
       <c r="C6">
-        <v>-0.00305938720703125</v>
+        <v>-0.0190887451171875</v>
       </c>
       <c r="D6">
-        <v>0.0066680908203125</v>
+        <v>-0.048553466796875</v>
       </c>
       <c r="E6">
-        <v>-0.88671875</v>
+        <v>-0.59814453125</v>
       </c>
       <c r="F6">
-        <v>-0.06494140625</v>
+        <v>-0.01052093505859375</v>
       </c>
       <c r="G6">
-        <v>-0.919921875</v>
+        <v>-0.82568359375</v>
       </c>
       <c r="H6">
-        <v>0.044708251953125</v>
+        <v>0.08258056640625</v>
       </c>
       <c r="I6">
-        <v>-0.06494140625</v>
+        <v>-0.01052093505859375</v>
       </c>
       <c r="J6">
-        <v>-0.173583984375</v>
+        <v>-0.285888671875</v>
       </c>
       <c r="K6">
-        <v>0.83935546875</v>
+        <v>0.89892578125</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1066,34 +1066,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.050048828125</v>
+        <v>0.08966064453125</v>
       </c>
       <c r="C7">
-        <v>-0.00848388671875</v>
+        <v>-0.1488037109375</v>
       </c>
       <c r="D7">
-        <v>0.04290771484375</v>
+        <v>0.034088134765625</v>
       </c>
       <c r="E7">
-        <v>0.66943359375</v>
+        <v>0.6171875</v>
       </c>
       <c r="F7">
-        <v>0.05303955078125</v>
+        <v>0.1641845703125</v>
       </c>
       <c r="G7">
-        <v>-0.47314453125</v>
+        <v>-0.4736328125</v>
       </c>
       <c r="H7">
-        <v>0.0068817138671875</v>
+        <v>-0.017303466796875</v>
       </c>
       <c r="I7">
-        <v>0.05303955078125</v>
+        <v>0.1641845703125</v>
       </c>
       <c r="J7">
-        <v>-0.25390625</v>
+        <v>-0.14013671875</v>
       </c>
       <c r="K7">
-        <v>-0.96630859375</v>
+        <v>-0.8896484375</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1101,34 +1101,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.31640625</v>
+        <v>0.442138671875</v>
       </c>
       <c r="C8">
-        <v>0.08502197265625</v>
+        <v>0.05230712890625</v>
       </c>
       <c r="D8">
-        <v>0.06732177734375</v>
+        <v>0.05743408203125</v>
       </c>
       <c r="E8">
-        <v>-0.27978515625</v>
+        <v>-0.11627197265625</v>
       </c>
       <c r="F8">
-        <v>0.034271240234375</v>
+        <v>0.0166778564453125</v>
       </c>
       <c r="G8">
-        <v>0.66015625</v>
+        <v>0.9716796875</v>
       </c>
       <c r="H8">
-        <v>0.04254150390625</v>
+        <v>0.08209228515625</v>
       </c>
       <c r="I8">
-        <v>0.034271240234375</v>
+        <v>0.0166778564453125</v>
       </c>
       <c r="J8">
-        <v>-0.6064453125</v>
+        <v>-0.41162109375</v>
       </c>
       <c r="K8">
-        <v>-0.9716796875</v>
+        <v>-0.93798828125</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1136,34 +1136,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.260498046875</v>
+        <v>-0.21240234375</v>
       </c>
       <c r="C9">
-        <v>-0.04156494140625</v>
+        <v>-0.1640625</v>
       </c>
       <c r="D9">
-        <v>0.03369140625</v>
+        <v>0.039520263671875</v>
       </c>
       <c r="E9">
-        <v>-0.57958984375</v>
+        <v>-0.367919921875</v>
       </c>
       <c r="F9">
-        <v>0.179931640625</v>
+        <v>0.2041015625</v>
       </c>
       <c r="G9">
-        <v>-0.8759765625</v>
+        <v>-0.76318359375</v>
       </c>
       <c r="H9">
-        <v>0.06549072265625</v>
+        <v>0.077392578125</v>
       </c>
       <c r="I9">
-        <v>0.179931640625</v>
+        <v>0.2041015625</v>
       </c>
       <c r="J9">
-        <v>-0.2320556640625</v>
+        <v>-0.446044921875</v>
       </c>
       <c r="K9">
-        <v>-0.80322265625</v>
+        <v>-0.95068359375</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1171,34 +1171,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01202392578125</v>
+        <v>0.06671142578125</v>
       </c>
       <c r="C10">
-        <v>-0.1199951171875</v>
+        <v>-0.07989501953125</v>
       </c>
       <c r="D10">
-        <v>0.04022216796875</v>
+        <v>0.045013427734375</v>
       </c>
       <c r="E10">
-        <v>0.1304931640625</v>
+        <v>0.317626953125</v>
       </c>
       <c r="F10">
-        <v>0.061248779296875</v>
+        <v>0.12091064453125</v>
       </c>
       <c r="G10">
-        <v>-0.406005859375</v>
+        <v>0.2484130859375</v>
       </c>
       <c r="H10">
-        <v>0.021820068359375</v>
+        <v>0.0293121337890625</v>
       </c>
       <c r="I10">
-        <v>0.061248779296875</v>
+        <v>0.12091064453125</v>
       </c>
       <c r="J10">
-        <v>-0.1552734375</v>
+        <v>-0.24853515625</v>
       </c>
       <c r="K10">
-        <v>-0.89990234375</v>
+        <v>-0.8544921875</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1206,34 +1206,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.048980712890625</v>
+        <v>-0.1849365234375</v>
       </c>
       <c r="C11">
-        <v>0.037017822265625</v>
+        <v>0.0229644775390625</v>
       </c>
       <c r="D11">
-        <v>0.035858154296875</v>
+        <v>0.033203125</v>
       </c>
       <c r="E11">
-        <v>-0.4482421875</v>
+        <v>-0.505859375</v>
       </c>
       <c r="F11">
-        <v>-0.005496978759765625</v>
+        <v>-0.005481719970703125</v>
       </c>
       <c r="G11">
-        <v>-0.97021484375</v>
+        <v>-0.90673828125</v>
       </c>
       <c r="H11">
-        <v>0.06964111328125</v>
+        <v>0.08953857421875</v>
       </c>
       <c r="I11">
-        <v>-0.005496978759765625</v>
+        <v>-0.005481719970703125</v>
       </c>
       <c r="J11">
-        <v>-0.0369873046875</v>
+        <v>-0.2060546875</v>
       </c>
       <c r="K11">
-        <v>0.2017822265625</v>
+        <v>0.228271484375</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1241,34 +1241,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3916015625</v>
+        <v>0.35546875</v>
       </c>
       <c r="C12">
-        <v>-0.1187744140625</v>
+        <v>-0.004161834716796875</v>
       </c>
       <c r="D12">
-        <v>0.05731201171875</v>
+        <v>0.05462646484375</v>
       </c>
       <c r="E12">
-        <v>0.1688232421875</v>
+        <v>-0.07025146484375</v>
       </c>
       <c r="F12">
-        <v>0.043212890625</v>
+        <v>0.10748291015625</v>
       </c>
       <c r="G12">
-        <v>-0.452880859375</v>
+        <v>-0.363525390625</v>
       </c>
       <c r="H12">
-        <v>0.0266876220703125</v>
+        <v>0.032684326171875</v>
       </c>
       <c r="I12">
-        <v>0.043212890625</v>
+        <v>0.10748291015625</v>
       </c>
       <c r="J12">
-        <v>-0.0287933349609375</v>
+        <v>-0.01611328125</v>
       </c>
       <c r="K12">
-        <v>-0.88037109375</v>
+        <v>-0.98876953125</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1276,34 +1276,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5517578125</v>
+        <v>0.57373046875</v>
       </c>
       <c r="C13">
-        <v>-0.2490234375</v>
+        <v>-0.268798828125</v>
       </c>
       <c r="D13">
-        <v>0.06298828125</v>
+        <v>0.07513427734375</v>
       </c>
       <c r="E13">
-        <v>-0.440673828125</v>
+        <v>-0.85107421875</v>
       </c>
       <c r="F13">
-        <v>0.08880615234375</v>
+        <v>0.01438140869140625</v>
       </c>
       <c r="G13">
-        <v>-0.70654296875</v>
+        <v>-0.6611328125</v>
       </c>
       <c r="H13">
-        <v>0.1124267578125</v>
+        <v>0.143310546875</v>
       </c>
       <c r="I13">
-        <v>0.08880615234375</v>
+        <v>0.01438140869140625</v>
       </c>
       <c r="J13">
-        <v>0.53466796875</v>
+        <v>0.383544921875</v>
       </c>
       <c r="K13">
-        <v>-0.347900390625</v>
+        <v>-0.818359375</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1311,34 +1311,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.047271728515625</v>
+        <v>0.0114593505859375</v>
       </c>
       <c r="C14">
-        <v>-0.034881591796875</v>
+        <v>-0.041046142578125</v>
       </c>
       <c r="D14">
-        <v>0.031646728515625</v>
+        <v>0.01049041748046875</v>
       </c>
       <c r="E14">
-        <v>0.18115234375</v>
+        <v>0.384765625</v>
       </c>
       <c r="F14">
-        <v>-0.01290130615234375</v>
+        <v>0.06744384765625</v>
       </c>
       <c r="G14">
-        <v>-0.57080078125</v>
+        <v>-0.4833984375</v>
       </c>
       <c r="H14">
-        <v>-0.0038604736328125</v>
+        <v>0.01500701904296875</v>
       </c>
       <c r="I14">
-        <v>-0.01290130615234375</v>
+        <v>0.06744384765625</v>
       </c>
       <c r="J14">
-        <v>0.33984375</v>
+        <v>0.3603515625</v>
       </c>
       <c r="K14">
-        <v>0.97412109375</v>
+        <v>0.99267578125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,34 +1346,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.54150390625</v>
+        <v>0.57470703125</v>
       </c>
       <c r="C15">
-        <v>-0.24072265625</v>
+        <v>-0.276123046875</v>
       </c>
       <c r="D15">
-        <v>0.07177734375</v>
+        <v>0.0740966796875</v>
       </c>
       <c r="E15">
-        <v>0.20751953125</v>
+        <v>0.2646484375</v>
       </c>
       <c r="F15">
-        <v>0.0200042724609375</v>
+        <v>-0.006313323974609375</v>
       </c>
       <c r="G15">
-        <v>0.703125</v>
+        <v>0.728515625</v>
       </c>
       <c r="H15">
-        <v>-0.032623291015625</v>
+        <v>-0.03955078125</v>
       </c>
       <c r="I15">
-        <v>0.0200042724609375</v>
+        <v>-0.006313323974609375</v>
       </c>
       <c r="J15">
-        <v>-0.06121826171875</v>
+        <v>-0.370849609375</v>
       </c>
       <c r="K15">
-        <v>-0.98291015625</v>
+        <v>-0.994140625</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1381,34 +1381,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2364501953125</v>
+        <v>0.2271728515625</v>
       </c>
       <c r="C16">
-        <v>-0.11077880859375</v>
+        <v>-0.08935546875</v>
       </c>
       <c r="D16">
-        <v>0.04595947265625</v>
+        <v>-0.0253753662109375</v>
       </c>
       <c r="E16">
-        <v>-0.11517333984375</v>
+        <v>-0.391845703125</v>
       </c>
       <c r="F16">
-        <v>0.0709228515625</v>
+        <v>0.12469482421875</v>
       </c>
       <c r="G16">
-        <v>-0.94921875</v>
+        <v>-0.60986328125</v>
       </c>
       <c r="H16">
-        <v>0.060272216796875</v>
+        <v>0.11810302734375</v>
       </c>
       <c r="I16">
-        <v>0.0709228515625</v>
+        <v>0.12469482421875</v>
       </c>
       <c r="J16">
-        <v>0.671875</v>
+        <v>0.7255859375</v>
       </c>
       <c r="K16">
-        <v>0.92431640625</v>
+        <v>0.86767578125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,34 +1416,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2008056640625</v>
+        <v>0.0258026123046875</v>
       </c>
       <c r="C17">
-        <v>-0.0084075927734375</v>
+        <v>-0.06134033203125</v>
       </c>
       <c r="D17">
-        <v>0.03448486328125</v>
+        <v>0.0215911865234375</v>
       </c>
       <c r="E17">
-        <v>-0.67822265625</v>
+        <v>-0.53515625</v>
       </c>
       <c r="F17">
-        <v>-0.08233642578125</v>
+        <v>-0.08074951171875</v>
       </c>
       <c r="G17">
-        <v>0.65576171875</v>
+        <v>0.8173828125</v>
       </c>
       <c r="H17">
-        <v>0.03924560546875</v>
+        <v>0.09124755859375</v>
       </c>
       <c r="I17">
-        <v>-0.08233642578125</v>
+        <v>-0.08074951171875</v>
       </c>
       <c r="J17">
-        <v>-0.076904296875</v>
+        <v>-0.136962890625</v>
       </c>
       <c r="K17">
-        <v>-0.90087890625</v>
+        <v>-0.8447265625</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1451,34 +1451,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.50830078125</v>
+        <v>0.402099609375</v>
       </c>
       <c r="C18">
-        <v>-0.1474609375</v>
+        <v>-0.156005859375</v>
       </c>
       <c r="D18">
-        <v>0.0716552734375</v>
+        <v>0.04400634765625</v>
       </c>
       <c r="E18">
-        <v>-0.1109619140625</v>
+        <v>-0.364990234375</v>
       </c>
       <c r="F18">
-        <v>0.07244873046875</v>
+        <v>0.1595458984375</v>
       </c>
       <c r="G18">
-        <v>-0.92431640625</v>
+        <v>-0.92822265625</v>
       </c>
       <c r="H18">
-        <v>-0.0162353515625</v>
+        <v>0.003484725952148438</v>
       </c>
       <c r="I18">
-        <v>0.07244873046875</v>
+        <v>0.1595458984375</v>
       </c>
       <c r="J18">
-        <v>-0.1890869140625</v>
+        <v>-0.08087158203125</v>
       </c>
       <c r="K18">
-        <v>0.0767822265625</v>
+        <v>0.20458984375</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1486,34 +1486,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2548828125</v>
+        <v>0.289794921875</v>
       </c>
       <c r="C19">
-        <v>0.035491943359375</v>
+        <v>-0.003717422485351562</v>
       </c>
       <c r="D19">
-        <v>0.11175537109375</v>
+        <v>0.1214599609375</v>
       </c>
       <c r="E19">
-        <v>0.7470703125</v>
+        <v>0.77685546875</v>
       </c>
       <c r="F19">
-        <v>0.09796142578125</v>
+        <v>0.17041015625</v>
       </c>
       <c r="G19">
-        <v>0.9619140625</v>
+        <v>0.97509765625</v>
       </c>
       <c r="H19">
-        <v>0.00315093994140625</v>
+        <v>-0.0232696533203125</v>
       </c>
       <c r="I19">
-        <v>0.09796142578125</v>
+        <v>0.17041015625</v>
       </c>
       <c r="J19">
-        <v>0.3818359375</v>
+        <v>0.26513671875</v>
       </c>
       <c r="K19">
-        <v>0.93798828125</v>
+        <v>0.88525390625</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1521,34 +1521,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1258544921875</v>
+        <v>0.0165863037109375</v>
       </c>
       <c r="C20">
-        <v>-0.19140625</v>
+        <v>-0.2469482421875</v>
       </c>
       <c r="D20">
-        <v>0.037872314453125</v>
+        <v>0.004352569580078125</v>
       </c>
       <c r="E20">
-        <v>-0.63525390625</v>
+        <v>-0.8662109375</v>
       </c>
       <c r="F20">
-        <v>0.1385498046875</v>
+        <v>0.1641845703125</v>
       </c>
       <c r="G20">
-        <v>-0.388671875</v>
+        <v>-0.58349609375</v>
       </c>
       <c r="H20">
-        <v>-0.0374755859375</v>
+        <v>-0.0294647216796875</v>
       </c>
       <c r="I20">
-        <v>0.1385498046875</v>
+        <v>0.1641845703125</v>
       </c>
       <c r="J20">
-        <v>0.1256103515625</v>
+        <v>-0.031494140625</v>
       </c>
       <c r="K20">
-        <v>0.9951171875</v>
+        <v>0.998046875</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1556,34 +1556,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.268798828125</v>
+        <v>0.458740234375</v>
       </c>
       <c r="C21">
-        <v>-0.16748046875</v>
+        <v>-0.2041015625</v>
       </c>
       <c r="D21">
-        <v>0.047882080078125</v>
+        <v>0.044891357421875</v>
       </c>
       <c r="E21">
-        <v>-0.72705078125</v>
+        <v>-0.1627197265625</v>
       </c>
       <c r="F21">
-        <v>-0.0174407958984375</v>
+        <v>6.341934204101562E-05</v>
       </c>
       <c r="G21">
-        <v>-0.73095703125</v>
+        <v>-0.57080078125</v>
       </c>
       <c r="H21">
-        <v>0.0040130615234375</v>
+        <v>-0.025604248046875</v>
       </c>
       <c r="I21">
-        <v>-0.0174407958984375</v>
+        <v>6.341934204101562E-05</v>
       </c>
       <c r="J21">
-        <v>0.032928466796875</v>
+        <v>-0.465087890625</v>
       </c>
       <c r="K21">
-        <v>-0.97265625</v>
+        <v>-0.84326171875</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1591,34 +1591,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.21142578125</v>
+        <v>-0.1322021484375</v>
       </c>
       <c r="C22">
-        <v>0.08673095703125</v>
+        <v>0.07757568359375</v>
       </c>
       <c r="D22">
-        <v>0.036895751953125</v>
+        <v>0.0704345703125</v>
       </c>
       <c r="E22">
-        <v>-0.24072265625</v>
+        <v>0.055267333984375</v>
       </c>
       <c r="F22">
-        <v>-0.01520538330078125</v>
+        <v>0.01032257080078125</v>
       </c>
       <c r="G22">
-        <v>-0.74267578125</v>
+        <v>-0.8603515625</v>
       </c>
       <c r="H22">
-        <v>0.03302001953125</v>
+        <v>0.08355712890625</v>
       </c>
       <c r="I22">
-        <v>-0.01520538330078125</v>
+        <v>0.01032257080078125</v>
       </c>
       <c r="J22">
-        <v>-0.1336669921875</v>
+        <v>-0.30322265625</v>
       </c>
       <c r="K22">
-        <v>-0.59912109375</v>
+        <v>-0.54541015625</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1626,34 +1626,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.16650390625</v>
+        <v>0.11614990234375</v>
       </c>
       <c r="C23">
-        <v>0.06036376953125</v>
+        <v>-0.0259246826171875</v>
       </c>
       <c r="D23">
-        <v>0.052398681640625</v>
+        <v>0.09100341796875</v>
       </c>
       <c r="E23">
-        <v>-0.1605224609375</v>
+        <v>-0.011749267578125</v>
       </c>
       <c r="F23">
-        <v>0.06573486328125</v>
+        <v>0.060272216796875</v>
       </c>
       <c r="G23">
-        <v>-0.4375</v>
+        <v>-0.58642578125</v>
       </c>
       <c r="H23">
-        <v>0.054443359375</v>
+        <v>0.0570068359375</v>
       </c>
       <c r="I23">
-        <v>0.06573486328125</v>
+        <v>0.060272216796875</v>
       </c>
       <c r="J23">
-        <v>0.1527099609375</v>
+        <v>0.06646728515625</v>
       </c>
       <c r="K23">
-        <v>-0.8125</v>
+        <v>-0.8857421875</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1661,34 +1661,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.024139404296875</v>
+        <v>-0.1312255859375</v>
       </c>
       <c r="C24">
-        <v>-0.050262451171875</v>
+        <v>-0.236572265625</v>
       </c>
       <c r="D24">
-        <v>0.047454833984375</v>
+        <v>0.09075927734375</v>
       </c>
       <c r="E24">
-        <v>0.1005859375</v>
+        <v>0.166015625</v>
       </c>
       <c r="F24">
-        <v>0.1324462890625</v>
+        <v>0.145263671875</v>
       </c>
       <c r="G24">
-        <v>0.259521484375</v>
+        <v>0.70947265625</v>
       </c>
       <c r="H24">
-        <v>-0.031036376953125</v>
+        <v>-0.045166015625</v>
       </c>
       <c r="I24">
-        <v>0.1324462890625</v>
+        <v>0.145263671875</v>
       </c>
       <c r="J24">
-        <v>0.33740234375</v>
+        <v>0.4384765625</v>
       </c>
       <c r="K24">
-        <v>0.99462890625</v>
+        <v>0.99169921875</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1696,31 +1696,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.114013671875</v>
+        <v>-0.08795166015625</v>
       </c>
       <c r="C25">
-        <v>-0.047760009765625</v>
+        <v>0.09564208984375</v>
       </c>
       <c r="D25">
-        <v>0.047271728515625</v>
+        <v>0.067626953125</v>
       </c>
       <c r="E25">
-        <v>0.47998046875</v>
+        <v>0.2061767578125</v>
       </c>
       <c r="F25">
-        <v>-0.0245208740234375</v>
+        <v>0.020172119140625</v>
       </c>
       <c r="G25">
-        <v>0.2015380859375</v>
+        <v>0.025543212890625</v>
       </c>
       <c r="H25">
-        <v>0.003671646118164062</v>
+        <v>-0.004489898681640625</v>
       </c>
       <c r="I25">
-        <v>-0.0245208740234375</v>
+        <v>0.020172119140625</v>
       </c>
       <c r="J25">
-        <v>0.28125</v>
+        <v>0.28564453125</v>
       </c>
       <c r="K25">
         <v>0.9833984375</v>
@@ -1731,34 +1731,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.08856201171875</v>
+        <v>0.171875</v>
       </c>
       <c r="C26">
-        <v>-0.10076904296875</v>
+        <v>-0.0626220703125</v>
       </c>
       <c r="D26">
-        <v>0.06341552734375</v>
+        <v>0.10394287109375</v>
       </c>
       <c r="E26">
-        <v>0.61474609375</v>
+        <v>0.7841796875</v>
       </c>
       <c r="F26">
-        <v>0.09716796875</v>
+        <v>0.12371826171875</v>
       </c>
       <c r="G26">
-        <v>0.5009765625</v>
+        <v>0.65869140625</v>
       </c>
       <c r="H26">
-        <v>-0.047210693359375</v>
+        <v>-0.002399444580078125</v>
       </c>
       <c r="I26">
-        <v>0.09716796875</v>
+        <v>0.12371826171875</v>
       </c>
       <c r="J26">
-        <v>0.0280303955078125</v>
+        <v>0.0256805419921875</v>
       </c>
       <c r="K26">
-        <v>-0.9287109375</v>
+        <v>-0.98583984375</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1766,34 +1766,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.21875</v>
+        <v>-0.37158203125</v>
       </c>
       <c r="C27">
-        <v>-0.119873046875</v>
+        <v>-0.09991455078125</v>
       </c>
       <c r="D27">
-        <v>0.0469970703125</v>
+        <v>0.05059814453125</v>
       </c>
       <c r="E27">
-        <v>-0.7158203125</v>
+        <v>-0.8134765625</v>
       </c>
       <c r="F27">
-        <v>-0.027496337890625</v>
+        <v>-0.00847625732421875</v>
       </c>
       <c r="G27">
-        <v>-0.7451171875</v>
+        <v>-0.84228515625</v>
       </c>
       <c r="H27">
-        <v>0.0712890625</v>
+        <v>0.1136474609375</v>
       </c>
       <c r="I27">
-        <v>-0.027496337890625</v>
+        <v>-0.00847625732421875</v>
       </c>
       <c r="J27">
-        <v>0.07366943359375</v>
+        <v>-0.129638671875</v>
       </c>
       <c r="K27">
-        <v>-0.73828125</v>
+        <v>-0.69580078125</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1801,34 +1801,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.086181640625</v>
+        <v>-0.065185546875</v>
       </c>
       <c r="C28">
-        <v>-0.1790771484375</v>
+        <v>-0.24853515625</v>
       </c>
       <c r="D28">
-        <v>-0.037445068359375</v>
+        <v>-0.07135009765625</v>
       </c>
       <c r="E28">
-        <v>-0.7646484375</v>
+        <v>-0.91259765625</v>
       </c>
       <c r="F28">
-        <v>-0.00614166259765625</v>
+        <v>-0.049652099609375</v>
       </c>
       <c r="G28">
-        <v>-0.4375</v>
+        <v>-0.41064453125</v>
       </c>
       <c r="H28">
-        <v>0.0200958251953125</v>
+        <v>0.0143585205078125</v>
       </c>
       <c r="I28">
-        <v>-0.00614166259765625</v>
+        <v>-0.049652099609375</v>
       </c>
       <c r="J28">
-        <v>0.47509765625</v>
+        <v>0.583984375</v>
       </c>
       <c r="K28">
-        <v>0.87646484375</v>
+        <v>0.9228515625</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,34 +1836,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.253173828125</v>
+        <v>0.406982421875</v>
       </c>
       <c r="C29">
-        <v>0.1484375</v>
+        <v>0.032012939453125</v>
       </c>
       <c r="D29">
-        <v>0.0902099609375</v>
+        <v>0.088623046875</v>
       </c>
       <c r="E29">
-        <v>0.02783203125</v>
+        <v>0.023040771484375</v>
       </c>
       <c r="F29">
-        <v>0.046295166015625</v>
+        <v>0.00472259521484375</v>
       </c>
       <c r="G29">
-        <v>0.283203125</v>
+        <v>0.7626953125</v>
       </c>
       <c r="H29">
-        <v>0.09234619140625</v>
+        <v>0.10040283203125</v>
       </c>
       <c r="I29">
-        <v>0.046295166015625</v>
+        <v>0.00472259521484375</v>
       </c>
       <c r="J29">
-        <v>-0.2509765625</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="K29">
-        <v>-0.9228515625</v>
+        <v>-0.9677734375</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,34 +1871,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.0772705078125</v>
+        <v>0.196044921875</v>
       </c>
       <c r="C30">
-        <v>-0.1824951171875</v>
+        <v>-0.363037109375</v>
       </c>
       <c r="D30">
-        <v>-0.004001617431640625</v>
+        <v>-0.02764892578125</v>
       </c>
       <c r="E30">
-        <v>-0.003082275390625</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="F30">
-        <v>0.08819580078125</v>
+        <v>0.062255859375</v>
       </c>
       <c r="G30">
-        <v>-0.794921875</v>
+        <v>-0.68505859375</v>
       </c>
       <c r="H30">
-        <v>-0.015594482421875</v>
+        <v>-0.031585693359375</v>
       </c>
       <c r="I30">
-        <v>0.08819580078125</v>
+        <v>0.062255859375</v>
       </c>
       <c r="J30">
-        <v>0.0501708984375</v>
+        <v>0.07470703125</v>
       </c>
       <c r="K30">
-        <v>-0.7978515625</v>
+        <v>-0.98388671875</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1906,34 +1906,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1390380859375</v>
+        <v>0.30224609375</v>
       </c>
       <c r="C31">
-        <v>-0.1192626953125</v>
+        <v>-0.103515625</v>
       </c>
       <c r="D31">
-        <v>0.0662841796875</v>
+        <v>0.09478759765625</v>
       </c>
       <c r="E31">
-        <v>0.57568359375</v>
+        <v>0.327880859375</v>
       </c>
       <c r="F31">
-        <v>0.0487060546875</v>
+        <v>0.08416748046875</v>
       </c>
       <c r="G31">
-        <v>-0.5400390625</v>
+        <v>-0.849609375</v>
       </c>
       <c r="H31">
-        <v>0.0274658203125</v>
+        <v>0.03619384765625</v>
       </c>
       <c r="I31">
-        <v>0.0487060546875</v>
+        <v>0.08416748046875</v>
       </c>
       <c r="J31">
-        <v>-0.2320556640625</v>
+        <v>-0.330810546875</v>
       </c>
       <c r="K31">
-        <v>-0.9169921875</v>
+        <v>-0.98779296875</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1941,34 +1941,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.255859375</v>
+        <v>0.298828125</v>
       </c>
       <c r="C32">
-        <v>0.0689697265625</v>
+        <v>0.08551025390625</v>
       </c>
       <c r="D32">
-        <v>0.01538848876953125</v>
+        <v>0.0166778564453125</v>
       </c>
       <c r="E32">
-        <v>-0.255859375</v>
+        <v>0.089111328125</v>
       </c>
       <c r="F32">
-        <v>0.0306243896484375</v>
+        <v>0.039947509765625</v>
       </c>
       <c r="G32">
-        <v>0.6396484375</v>
+        <v>0.73095703125</v>
       </c>
       <c r="H32">
-        <v>0.039764404296875</v>
+        <v>0.04998779296875</v>
       </c>
       <c r="I32">
-        <v>0.0306243896484375</v>
+        <v>0.039947509765625</v>
       </c>
       <c r="J32">
-        <v>-0.185791015625</v>
+        <v>-0.1881103515625</v>
       </c>
       <c r="K32">
-        <v>-0.96435546875</v>
+        <v>-0.9306640625</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1976,34 +1976,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4521484375</v>
+        <v>0.496337890625</v>
       </c>
       <c r="C33">
-        <v>-0.0711669921875</v>
+        <v>-0.185546875</v>
       </c>
       <c r="D33">
-        <v>0.055206298828125</v>
+        <v>0.0823974609375</v>
       </c>
       <c r="E33">
-        <v>-0.6845703125</v>
+        <v>-0.71240234375</v>
       </c>
       <c r="F33">
-        <v>-0.046295166015625</v>
+        <v>-0.1622314453125</v>
       </c>
       <c r="G33">
-        <v>-0.654296875</v>
+        <v>-0.828125</v>
       </c>
       <c r="H33">
-        <v>0.06805419921875</v>
+        <v>0.08544921875</v>
       </c>
       <c r="I33">
-        <v>-0.046295166015625</v>
+        <v>-0.1622314453125</v>
       </c>
       <c r="J33">
-        <v>-0.21435546875</v>
+        <v>-0.250244140625</v>
       </c>
       <c r="K33">
-        <v>-0.98046875</v>
+        <v>-0.83203125</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2011,34 +2011,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.043212890625</v>
+        <v>-0.31396484375</v>
       </c>
       <c r="C34">
-        <v>-0.076904296875</v>
+        <v>-0.1295166015625</v>
       </c>
       <c r="D34">
-        <v>0.0477294921875</v>
+        <v>0.06634521484375</v>
       </c>
       <c r="E34">
-        <v>0.74072265625</v>
+        <v>0.81884765625</v>
       </c>
       <c r="F34">
-        <v>0.1630859375</v>
+        <v>0.217529296875</v>
       </c>
       <c r="G34">
-        <v>-0.947265625</v>
+        <v>-0.95263671875</v>
       </c>
       <c r="H34">
-        <v>-0.03143310546875</v>
+        <v>-0.025299072265625</v>
       </c>
       <c r="I34">
-        <v>0.1630859375</v>
+        <v>0.217529296875</v>
       </c>
       <c r="J34">
-        <v>-0.2232666015625</v>
+        <v>-0.280029296875</v>
       </c>
       <c r="K34">
-        <v>0.82666015625</v>
+        <v>0.76708984375</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2046,34 +2046,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.2467041015625</v>
+        <v>0.4013671875</v>
       </c>
       <c r="C35">
-        <v>-0.1981201171875</v>
+        <v>-0.2362060546875</v>
       </c>
       <c r="D35">
-        <v>0.07568359375</v>
+        <v>0.09478759765625</v>
       </c>
       <c r="E35">
-        <v>0.314208984375</v>
+        <v>0.7138671875</v>
       </c>
       <c r="F35">
-        <v>0.10308837890625</v>
+        <v>0.1357421875</v>
       </c>
       <c r="G35">
-        <v>0.869140625</v>
+        <v>0.8193359375</v>
       </c>
       <c r="H35">
-        <v>-0.0145721435546875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="I35">
-        <v>0.10308837890625</v>
+        <v>0.1357421875</v>
       </c>
       <c r="J35">
-        <v>-0.0699462890625</v>
+        <v>-0.30712890625</v>
       </c>
       <c r="K35">
-        <v>-0.95263671875</v>
+        <v>-0.91748046875</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2081,34 +2081,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.221923828125</v>
+        <v>0.4404296875</v>
       </c>
       <c r="C36">
-        <v>-0.1981201171875</v>
+        <v>-0.257080078125</v>
       </c>
       <c r="D36">
-        <v>0.06378173828125</v>
+        <v>0.08428955078125</v>
       </c>
       <c r="E36">
-        <v>-0.469482421875</v>
+        <v>-0.6552734375</v>
       </c>
       <c r="F36">
-        <v>0.1256103515625</v>
+        <v>0.1280517578125</v>
       </c>
       <c r="G36">
-        <v>-0.7568359375</v>
+        <v>-0.57763671875</v>
       </c>
       <c r="H36">
-        <v>0.0633544921875</v>
+        <v>0.06396484375</v>
       </c>
       <c r="I36">
-        <v>0.1256103515625</v>
+        <v>0.1280517578125</v>
       </c>
       <c r="J36">
-        <v>0.1268310546875</v>
+        <v>-0.0499267578125</v>
       </c>
       <c r="K36">
-        <v>-0.953125</v>
+        <v>-0.98388671875</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2116,34 +2116,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1680908203125</v>
+        <v>-0.0838623046875</v>
       </c>
       <c r="C37">
-        <v>-0.3955078125</v>
+        <v>-0.423583984375</v>
       </c>
       <c r="D37">
-        <v>0.0304107666015625</v>
+        <v>0.0498046875</v>
       </c>
       <c r="E37">
-        <v>-0.43310546875</v>
+        <v>-0.1943359375</v>
       </c>
       <c r="F37">
-        <v>0.061431884765625</v>
+        <v>0.11175537109375</v>
       </c>
       <c r="G37">
-        <v>-0.473876953125</v>
+        <v>-0.190673828125</v>
       </c>
       <c r="H37">
-        <v>0.0209808349609375</v>
+        <v>-0.03985595703125</v>
       </c>
       <c r="I37">
-        <v>0.061431884765625</v>
+        <v>0.11175537109375</v>
       </c>
       <c r="J37">
-        <v>-0.263671875</v>
+        <v>-0.10009765625</v>
       </c>
       <c r="K37">
-        <v>-0.92919921875</v>
+        <v>-0.6689453125</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2151,34 +2151,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.262939453125</v>
+        <v>0.417724609375</v>
       </c>
       <c r="C38">
-        <v>-0.18017578125</v>
+        <v>-0.09698486328125</v>
       </c>
       <c r="D38">
-        <v>0.0200958251953125</v>
+        <v>0.0261993408203125</v>
       </c>
       <c r="E38">
-        <v>0.01149749755859375</v>
+        <v>0.330322265625</v>
       </c>
       <c r="F38">
-        <v>0.1063232421875</v>
+        <v>0.151611328125</v>
       </c>
       <c r="G38">
-        <v>0.452392578125</v>
+        <v>0.65966796875</v>
       </c>
       <c r="H38">
-        <v>0.07867431640625</v>
+        <v>0.043243408203125</v>
       </c>
       <c r="I38">
-        <v>0.1063232421875</v>
+        <v>0.151611328125</v>
       </c>
       <c r="J38">
-        <v>-0.0150604248046875</v>
+        <v>-0.019012451171875</v>
       </c>
       <c r="K38">
-        <v>-0.93408203125</v>
+        <v>-0.8896484375</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2186,34 +2186,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.13330078125</v>
+        <v>0.1773681640625</v>
       </c>
       <c r="C39">
-        <v>-0.217529296875</v>
+        <v>-0.185302734375</v>
       </c>
       <c r="D39">
-        <v>0.094482421875</v>
+        <v>0.09466552734375</v>
       </c>
       <c r="E39">
-        <v>0.2015380859375</v>
+        <v>0.6943359375</v>
       </c>
       <c r="F39">
-        <v>0.079345703125</v>
+        <v>0.1400146484375</v>
       </c>
       <c r="G39">
-        <v>-0.58154296875</v>
+        <v>-0.0246124267578125</v>
       </c>
       <c r="H39">
-        <v>0.00791168212890625</v>
+        <v>0.07550048828125</v>
       </c>
       <c r="I39">
-        <v>0.079345703125</v>
+        <v>0.1400146484375</v>
       </c>
       <c r="J39">
-        <v>-0.591796875</v>
+        <v>-0.355224609375</v>
       </c>
       <c r="K39">
-        <v>-0.90869140625</v>
+        <v>-0.9638671875</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2221,34 +2221,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1529541015625</v>
+        <v>0.140869140625</v>
       </c>
       <c r="C40">
-        <v>0.1524658203125</v>
+        <v>0.0982666015625</v>
       </c>
       <c r="D40">
-        <v>-0.025177001953125</v>
+        <v>-0.048980712890625</v>
       </c>
       <c r="E40">
-        <v>-0.11114501953125</v>
+        <v>-0.0469970703125</v>
       </c>
       <c r="F40">
-        <v>0.024749755859375</v>
+        <v>0.06561279296875</v>
       </c>
       <c r="G40">
-        <v>-0.78564453125</v>
+        <v>-0.58154296875</v>
       </c>
       <c r="H40">
-        <v>0.05462646484375</v>
+        <v>0.1151123046875</v>
       </c>
       <c r="I40">
-        <v>0.024749755859375</v>
+        <v>0.06561279296875</v>
       </c>
       <c r="J40">
-        <v>-0.0158233642578125</v>
+        <v>-0.051788330078125</v>
       </c>
       <c r="K40">
-        <v>-0.994140625</v>
+        <v>-0.99072265625</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2256,34 +2256,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.17724609375</v>
+        <v>0.333251953125</v>
       </c>
       <c r="C41">
-        <v>0.12493896484375</v>
+        <v>0.10516357421875</v>
       </c>
       <c r="D41">
-        <v>0.049560546875</v>
+        <v>0.026763916015625</v>
       </c>
       <c r="E41">
-        <v>-0.59130859375</v>
+        <v>-0.366943359375</v>
       </c>
       <c r="F41">
-        <v>0.0938720703125</v>
+        <v>0.156982421875</v>
       </c>
       <c r="G41">
-        <v>-0.82421875</v>
+        <v>-0.92529296875</v>
       </c>
       <c r="H41">
-        <v>0.02862548828125</v>
+        <v>0.05059814453125</v>
       </c>
       <c r="I41">
-        <v>0.0938720703125</v>
+        <v>0.156982421875</v>
       </c>
       <c r="J41">
-        <v>-0.258056640625</v>
+        <v>-0.29443359375</v>
       </c>
       <c r="K41">
-        <v>-0.96240234375</v>
+        <v>-0.70361328125</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2291,34 +2291,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.01251220703125</v>
+        <v>0.1441650390625</v>
       </c>
       <c r="C42">
-        <v>0.11163330078125</v>
+        <v>0.1796875</v>
       </c>
       <c r="D42">
-        <v>0.031463623046875</v>
+        <v>0.05718994140625</v>
       </c>
       <c r="E42">
-        <v>-0.76904296875</v>
+        <v>-0.7099609375</v>
       </c>
       <c r="F42">
-        <v>0.006099700927734375</v>
+        <v>-0.033599853515625</v>
       </c>
       <c r="G42">
-        <v>-0.72998046875</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="H42">
-        <v>0.08941650390625</v>
+        <v>0.125244140625</v>
       </c>
       <c r="I42">
-        <v>0.006099700927734375</v>
+        <v>-0.033599853515625</v>
       </c>
       <c r="J42">
-        <v>-0.10089111328125</v>
+        <v>-0.3369140625</v>
       </c>
       <c r="K42">
-        <v>-0.97265625</v>
+        <v>-0.93359375</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2326,34 +2326,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.39990234375</v>
+        <v>0.43115234375</v>
       </c>
       <c r="C43">
-        <v>0.2322998046875</v>
+        <v>0.251953125</v>
       </c>
       <c r="D43">
-        <v>-0.0654296875</v>
+        <v>-0.0860595703125</v>
       </c>
       <c r="E43">
-        <v>-0.72802734375</v>
+        <v>-0.63818359375</v>
       </c>
       <c r="F43">
-        <v>0.09503173828125</v>
+        <v>0.130859375</v>
       </c>
       <c r="G43">
-        <v>-0.7958984375</v>
+        <v>-0.708984375</v>
       </c>
       <c r="H43">
-        <v>0.0044708251953125</v>
+        <v>0.0181884765625</v>
       </c>
       <c r="I43">
-        <v>0.09503173828125</v>
+        <v>0.130859375</v>
       </c>
       <c r="J43">
-        <v>-0.2802734375</v>
+        <v>-0.345458984375</v>
       </c>
       <c r="K43">
-        <v>-0.9560546875</v>
+        <v>-0.88671875</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2361,34 +2361,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0762939453125</v>
+        <v>0.05810546875</v>
       </c>
       <c r="C44">
-        <v>-0.003755569458007812</v>
+        <v>-0.0806884765625</v>
       </c>
       <c r="D44">
-        <v>0.035369873046875</v>
+        <v>0.04949951171875</v>
       </c>
       <c r="E44">
-        <v>-0.7021484375</v>
+        <v>-0.71484375</v>
       </c>
       <c r="F44">
-        <v>-0.0357666015625</v>
+        <v>0.0240325927734375</v>
       </c>
       <c r="G44">
-        <v>-0.4013671875</v>
+        <v>-0.024505615234375</v>
       </c>
       <c r="H44">
-        <v>0.08203125</v>
+        <v>0.10736083984375</v>
       </c>
       <c r="I44">
-        <v>-0.0357666015625</v>
+        <v>0.0240325927734375</v>
       </c>
       <c r="J44">
-        <v>-0.2271728515625</v>
+        <v>-0.329833984375</v>
       </c>
       <c r="K44">
-        <v>-0.96728515625</v>
+        <v>-0.87451171875</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2396,34 +2396,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.12939453125</v>
+        <v>0.1263427734375</v>
       </c>
       <c r="C45">
-        <v>-0.0472412109375</v>
+        <v>0.048370361328125</v>
       </c>
       <c r="D45">
-        <v>0.036895751953125</v>
+        <v>0.0228271484375</v>
       </c>
       <c r="E45">
-        <v>0.0694580078125</v>
+        <v>0.2425537109375</v>
       </c>
       <c r="F45">
-        <v>0.0169525146484375</v>
+        <v>0.07611083984375</v>
       </c>
       <c r="G45">
-        <v>-0.494384765625</v>
+        <v>-0.422607421875</v>
       </c>
       <c r="H45">
-        <v>0.006198883056640625</v>
+        <v>-0.0003311634063720703</v>
       </c>
       <c r="I45">
-        <v>0.0169525146484375</v>
+        <v>0.07611083984375</v>
       </c>
       <c r="J45">
-        <v>0.0731201171875</v>
+        <v>-0.05682373046875</v>
       </c>
       <c r="K45">
-        <v>-0.3330078125</v>
+        <v>-0.11053466796875</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2431,34 +2431,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.04400634765625</v>
+        <v>0.11029052734375</v>
       </c>
       <c r="C46">
-        <v>-0.015838623046875</v>
+        <v>0.07830810546875</v>
       </c>
       <c r="D46">
-        <v>-0.0234375</v>
+        <v>-0.0110015869140625</v>
       </c>
       <c r="E46">
-        <v>-0.54931640625</v>
+        <v>0.0665283203125</v>
       </c>
       <c r="F46">
-        <v>-0.00928497314453125</v>
+        <v>-0.05609130859375</v>
       </c>
       <c r="G46">
-        <v>-0.87841796875</v>
+        <v>-0.94580078125</v>
       </c>
       <c r="H46">
-        <v>0.0142364501953125</v>
+        <v>0.02410888671875</v>
       </c>
       <c r="I46">
-        <v>-0.00928497314453125</v>
+        <v>-0.05609130859375</v>
       </c>
       <c r="J46">
-        <v>0.03485107421875</v>
+        <v>-0.28857421875</v>
       </c>
       <c r="K46">
-        <v>-0.8720703125</v>
+        <v>-0.97216796875</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2466,34 +2466,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.2017822265625</v>
+        <v>-0.1329345703125</v>
       </c>
       <c r="C47">
-        <v>0.0191802978515625</v>
+        <v>0.061767578125</v>
       </c>
       <c r="D47">
-        <v>0.003509521484375</v>
+        <v>-0.02288818359375</v>
       </c>
       <c r="E47">
-        <v>-0.468994140625</v>
+        <v>0.1671142578125</v>
       </c>
       <c r="F47">
-        <v>0.0693359375</v>
+        <v>0.1007080078125</v>
       </c>
       <c r="G47">
-        <v>-0.69482421875</v>
+        <v>-0.01849365234375</v>
       </c>
       <c r="H47">
-        <v>0.037750244140625</v>
+        <v>0.01751708984375</v>
       </c>
       <c r="I47">
-        <v>0.0693359375</v>
+        <v>0.1007080078125</v>
       </c>
       <c r="J47">
-        <v>0.252685546875</v>
+        <v>0.2340087890625</v>
       </c>
       <c r="K47">
-        <v>0.93798828125</v>
+        <v>0.955078125</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2501,34 +2501,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.057403564453125</v>
+        <v>-0.08026123046875</v>
       </c>
       <c r="C48">
-        <v>0.1737060546875</v>
+        <v>0.11181640625</v>
       </c>
       <c r="D48">
-        <v>-0.009246826171875</v>
+        <v>-0.037445068359375</v>
       </c>
       <c r="E48">
-        <v>-0.6240234375</v>
+        <v>-0.35888671875</v>
       </c>
       <c r="F48">
-        <v>-0.0621337890625</v>
+        <v>-0.0830078125</v>
       </c>
       <c r="G48">
-        <v>-0.94677734375</v>
+        <v>-0.93701171875</v>
       </c>
       <c r="H48">
-        <v>0.07330322265625</v>
+        <v>0.0792236328125</v>
       </c>
       <c r="I48">
-        <v>-0.0621337890625</v>
+        <v>-0.0830078125</v>
       </c>
       <c r="J48">
-        <v>0.1636962890625</v>
+        <v>0.009521484375</v>
       </c>
       <c r="K48">
-        <v>-0.9609375</v>
+        <v>-0.9833984375</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2536,34 +2536,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.306640625</v>
+        <v>0.47119140625</v>
       </c>
       <c r="C49">
-        <v>-0.07403564453125</v>
+        <v>-0.09149169921875</v>
       </c>
       <c r="D49">
-        <v>0.023162841796875</v>
+        <v>0.035186767578125</v>
       </c>
       <c r="E49">
-        <v>0.1973876953125</v>
+        <v>0.361083984375</v>
       </c>
       <c r="F49">
-        <v>0.09967041015625</v>
+        <v>0.127197265625</v>
       </c>
       <c r="G49">
-        <v>-0.90625</v>
+        <v>-0.70849609375</v>
       </c>
       <c r="H49">
-        <v>-0.0312347412109375</v>
+        <v>-0.027557373046875</v>
       </c>
       <c r="I49">
-        <v>0.09967041015625</v>
+        <v>0.127197265625</v>
       </c>
       <c r="J49">
-        <v>-0.17529296875</v>
+        <v>-0.06671142578125</v>
       </c>
       <c r="K49">
-        <v>-0.724609375</v>
+        <v>-0.86474609375</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2571,34 +2571,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.36328125</v>
+        <v>-0.07427978515625</v>
       </c>
       <c r="C50">
-        <v>-0.059844970703125</v>
+        <v>-0.036407470703125</v>
       </c>
       <c r="D50">
-        <v>0.04998779296875</v>
+        <v>0.08135986328125</v>
       </c>
       <c r="E50">
-        <v>-0.685546875</v>
+        <v>-0.78369140625</v>
       </c>
       <c r="F50">
-        <v>0.04473876953125</v>
+        <v>0.043243408203125</v>
       </c>
       <c r="G50">
-        <v>0.6962890625</v>
+        <v>0.302490234375</v>
       </c>
       <c r="H50">
-        <v>-0.000204920768737793</v>
+        <v>0.036865234375</v>
       </c>
       <c r="I50">
-        <v>0.04473876953125</v>
+        <v>0.043243408203125</v>
       </c>
       <c r="J50">
-        <v>0.350341796875</v>
+        <v>0.14208984375</v>
       </c>
       <c r="K50">
-        <v>0.88427734375</v>
+        <v>0.9453125</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2606,34 +2606,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1790771484375</v>
+        <v>0.310546875</v>
       </c>
       <c r="C51">
-        <v>0.059722900390625</v>
+        <v>0.05804443359375</v>
       </c>
       <c r="D51">
-        <v>-0.00439453125</v>
+        <v>0.024261474609375</v>
       </c>
       <c r="E51">
-        <v>0.9560546875</v>
+        <v>0.97509765625</v>
       </c>
       <c r="F51">
-        <v>0.324462890625</v>
+        <v>0.376708984375</v>
       </c>
       <c r="G51">
         <v>0.9921875</v>
       </c>
       <c r="H51">
-        <v>0.05718994140625</v>
+        <v>0.0919189453125</v>
       </c>
       <c r="I51">
-        <v>0.324462890625</v>
+        <v>0.376708984375</v>
       </c>
       <c r="J51">
-        <v>0.06951904296875</v>
+        <v>0.193603515625</v>
       </c>
       <c r="K51">
-        <v>-0.99462890625</v>
+        <v>-0.99072265625</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2641,34 +2641,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.14794921875</v>
+        <v>0.08172607421875</v>
       </c>
       <c r="C52">
-        <v>0.022674560546875</v>
+        <v>0.003316879272460938</v>
       </c>
       <c r="D52">
-        <v>0.005523681640625</v>
+        <v>0.006313323974609375</v>
       </c>
       <c r="E52">
-        <v>0.1376953125</v>
+        <v>0.390380859375</v>
       </c>
       <c r="F52">
-        <v>0.0247955322265625</v>
+        <v>0.088134765625</v>
       </c>
       <c r="G52">
-        <v>-0.88037109375</v>
+        <v>-0.5458984375</v>
       </c>
       <c r="H52">
-        <v>0.086181640625</v>
+        <v>0.108642578125</v>
       </c>
       <c r="I52">
-        <v>0.0247955322265625</v>
+        <v>0.088134765625</v>
       </c>
       <c r="J52">
-        <v>-0.403564453125</v>
+        <v>-0.2432861328125</v>
       </c>
       <c r="K52">
-        <v>-0.9892578125</v>
+        <v>-0.98388671875</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2676,34 +2676,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.55810546875</v>
+        <v>0.52392578125</v>
       </c>
       <c r="C53">
-        <v>-0.4296875</v>
+        <v>-0.50390625</v>
       </c>
       <c r="D53">
-        <v>0.177734375</v>
+        <v>0.19482421875</v>
       </c>
       <c r="E53">
-        <v>-0.75927734375</v>
+        <v>-0.82763671875</v>
       </c>
       <c r="F53">
-        <v>0.2420654296875</v>
+        <v>0.34814453125</v>
       </c>
       <c r="G53">
-        <v>-0.97998046875</v>
+        <v>-0.99755859375</v>
       </c>
       <c r="H53">
-        <v>0.033172607421875</v>
+        <v>0.06353759765625</v>
       </c>
       <c r="I53">
-        <v>0.2420654296875</v>
+        <v>0.34814453125</v>
       </c>
       <c r="J53">
-        <v>0.41162109375</v>
+        <v>0.35986328125</v>
       </c>
       <c r="K53">
-        <v>0.9931640625</v>
+        <v>0.9482421875</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2711,34 +2711,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.343505859375</v>
+        <v>0.349365234375</v>
       </c>
       <c r="C54">
-        <v>0.005275726318359375</v>
+        <v>0.10498046875</v>
       </c>
       <c r="D54">
-        <v>0.03192138671875</v>
+        <v>-0.004207611083984375</v>
       </c>
       <c r="E54">
-        <v>0.1673583984375</v>
+        <v>0.334228515625</v>
       </c>
       <c r="F54">
-        <v>-0.01361846923828125</v>
+        <v>0.06463623046875</v>
       </c>
       <c r="G54">
-        <v>-0.96630859375</v>
+        <v>-0.86181640625</v>
       </c>
       <c r="H54">
-        <v>0.004886627197265625</v>
+        <v>0.0382080078125</v>
       </c>
       <c r="I54">
-        <v>-0.01361846923828125</v>
+        <v>0.06463623046875</v>
       </c>
       <c r="J54">
-        <v>-0.319580078125</v>
+        <v>-0.25732421875</v>
       </c>
       <c r="K54">
-        <v>-0.748046875</v>
+        <v>-0.59912109375</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2746,34 +2746,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.16943359375</v>
+        <v>-0.0751953125</v>
       </c>
       <c r="C55">
-        <v>-0.0828857421875</v>
+        <v>-0.22021484375</v>
       </c>
       <c r="D55">
-        <v>0.1396484375</v>
+        <v>0.1119384765625</v>
       </c>
       <c r="E55">
-        <v>-0.387451171875</v>
+        <v>-0.427978515625</v>
       </c>
       <c r="F55">
-        <v>0.1756591796875</v>
+        <v>0.1329345703125</v>
       </c>
       <c r="G55">
-        <v>-0.85546875</v>
+        <v>-0.84423828125</v>
       </c>
       <c r="H55">
-        <v>0.045074462890625</v>
+        <v>0.0562744140625</v>
       </c>
       <c r="I55">
-        <v>0.1756591796875</v>
+        <v>0.1329345703125</v>
       </c>
       <c r="J55">
-        <v>-0.379150390625</v>
+        <v>-0.19189453125</v>
       </c>
       <c r="K55">
-        <v>-0.94140625</v>
+        <v>-0.87255859375</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2781,34 +2781,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.12890625</v>
+        <v>0.1856689453125</v>
       </c>
       <c r="C56">
-        <v>0.01087188720703125</v>
+        <v>-0.030181884765625</v>
       </c>
       <c r="D56">
-        <v>-0.00730133056640625</v>
+        <v>0.003704071044921875</v>
       </c>
       <c r="E56">
-        <v>-0.472900390625</v>
+        <v>-0.5400390625</v>
       </c>
       <c r="F56">
-        <v>0.12103271484375</v>
+        <v>0.1688232421875</v>
       </c>
       <c r="G56">
-        <v>-0.587890625</v>
+        <v>-0.6591796875</v>
       </c>
       <c r="H56">
-        <v>0.03350830078125</v>
+        <v>0.06341552734375</v>
       </c>
       <c r="I56">
-        <v>0.12103271484375</v>
+        <v>0.1688232421875</v>
       </c>
       <c r="J56">
-        <v>-0.21435546875</v>
+        <v>-0.292724609375</v>
       </c>
       <c r="K56">
-        <v>-0.9833984375</v>
+        <v>-0.9970703125</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2816,34 +2816,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.380126953125</v>
+        <v>0.2227783203125</v>
       </c>
       <c r="C57">
-        <v>-0.191650390625</v>
+        <v>-0.15185546875</v>
       </c>
       <c r="D57">
-        <v>-0.0089263916015625</v>
+        <v>0.022308349609375</v>
       </c>
       <c r="E57">
-        <v>-0.3095703125</v>
+        <v>-0.360107421875</v>
       </c>
       <c r="F57">
-        <v>0.119873046875</v>
+        <v>0.179443359375</v>
       </c>
       <c r="G57">
-        <v>-0.994140625</v>
+        <v>-0.990234375</v>
       </c>
       <c r="H57">
-        <v>0.04107666015625</v>
+        <v>0.05950927734375</v>
       </c>
       <c r="I57">
-        <v>0.119873046875</v>
+        <v>0.179443359375</v>
       </c>
       <c r="J57">
-        <v>0.2000732421875</v>
+        <v>-0.01229095458984375</v>
       </c>
       <c r="K57">
-        <v>-0.99462890625</v>
+        <v>-0.9970703125</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2851,34 +2851,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.225830078125</v>
+        <v>-0.1005859375</v>
       </c>
       <c r="C58">
-        <v>0.11553955078125</v>
+        <v>0.0205230712890625</v>
       </c>
       <c r="D58">
-        <v>0.01419830322265625</v>
+        <v>-0.027008056640625</v>
       </c>
       <c r="E58">
-        <v>-0.81787109375</v>
+        <v>-0.82470703125</v>
       </c>
       <c r="F58">
-        <v>-0.0049285888671875</v>
+        <v>-0.03912353515625</v>
       </c>
       <c r="G58">
-        <v>-0.9921875</v>
+        <v>-0.90771484375</v>
       </c>
       <c r="H58">
-        <v>0.12548828125</v>
+        <v>0.135498046875</v>
       </c>
       <c r="I58">
-        <v>-0.0049285888671875</v>
+        <v>-0.03912353515625</v>
       </c>
       <c r="J58">
-        <v>-0.355712890625</v>
+        <v>-0.50244140625</v>
       </c>
       <c r="K58">
-        <v>-0.99267578125</v>
+        <v>-0.94140625</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2886,34 +2886,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.057525634765625</v>
+        <v>-0.042999267578125</v>
       </c>
       <c r="C59">
-        <v>-0.2156982421875</v>
+        <v>-0.3564453125</v>
       </c>
       <c r="D59">
-        <v>0.03448486328125</v>
+        <v>0.045501708984375</v>
       </c>
       <c r="E59">
-        <v>-0.54296875</v>
+        <v>-0.705078125</v>
       </c>
       <c r="F59">
-        <v>0.0728759765625</v>
+        <v>0.08673095703125</v>
       </c>
       <c r="G59">
-        <v>-0.8603515625</v>
+        <v>-0.84912109375</v>
       </c>
       <c r="H59">
-        <v>0.0041961669921875</v>
+        <v>-0.09197998046875</v>
       </c>
       <c r="I59">
-        <v>0.0728759765625</v>
+        <v>0.08673095703125</v>
       </c>
       <c r="J59">
-        <v>0.006805419921875</v>
+        <v>0.1837158203125</v>
       </c>
       <c r="K59">
-        <v>-0.91552734375</v>
+        <v>-0.89208984375</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2921,34 +2921,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.42041015625</v>
+        <v>0.56005859375</v>
       </c>
       <c r="C60">
-        <v>-0.160400390625</v>
+        <v>-0.0728759765625</v>
       </c>
       <c r="D60">
-        <v>0.050445556640625</v>
+        <v>0.0767822265625</v>
       </c>
       <c r="E60">
-        <v>-0.7685546875</v>
+        <v>-0.3154296875</v>
       </c>
       <c r="F60">
-        <v>0.1861572265625</v>
+        <v>0.260498046875</v>
       </c>
       <c r="G60">
-        <v>-0.9404296875</v>
+        <v>-0.958984375</v>
       </c>
       <c r="H60">
-        <v>0.033843994140625</v>
+        <v>0.0245361328125</v>
       </c>
       <c r="I60">
-        <v>0.1861572265625</v>
+        <v>0.260498046875</v>
       </c>
       <c r="J60">
-        <v>0.64990234375</v>
+        <v>0.60595703125</v>
       </c>
       <c r="K60">
-        <v>-0.98095703125</v>
+        <v>-0.9619140625</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2956,34 +2956,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.28173828125</v>
+        <v>0.274169921875</v>
       </c>
       <c r="C61">
-        <v>-0.1480712890625</v>
+        <v>-0.0650634765625</v>
       </c>
       <c r="D61">
-        <v>-0.002294540405273438</v>
+        <v>0.05206298828125</v>
       </c>
       <c r="E61">
-        <v>-0.141845703125</v>
+        <v>-0.57421875</v>
       </c>
       <c r="F61">
-        <v>0.13427734375</v>
+        <v>0.0675048828125</v>
       </c>
       <c r="G61">
-        <v>-0.94482421875</v>
+        <v>-0.89599609375</v>
       </c>
       <c r="H61">
-        <v>-0.001462936401367188</v>
+        <v>-0.0028076171875</v>
       </c>
       <c r="I61">
-        <v>0.13427734375</v>
+        <v>0.0675048828125</v>
       </c>
       <c r="J61">
-        <v>-0.045867919921875</v>
+        <v>-0.082275390625</v>
       </c>
       <c r="K61">
-        <v>-0.85107421875</v>
+        <v>-0.951171875</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2991,34 +2991,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.316162109375</v>
+        <v>0.492919921875</v>
       </c>
       <c r="C62">
-        <v>0.10064697265625</v>
+        <v>0.061187744140625</v>
       </c>
       <c r="D62">
-        <v>0.037933349609375</v>
+        <v>0.0117950439453125</v>
       </c>
       <c r="E62">
-        <v>-0.8125</v>
+        <v>-0.7978515625</v>
       </c>
       <c r="F62">
-        <v>0.02777099609375</v>
+        <v>0.015869140625</v>
       </c>
       <c r="G62">
-        <v>-0.94140625</v>
+        <v>-0.966796875</v>
       </c>
       <c r="H62">
-        <v>0.0312042236328125</v>
+        <v>0.048858642578125</v>
       </c>
       <c r="I62">
-        <v>0.02777099609375</v>
+        <v>0.015869140625</v>
       </c>
       <c r="J62">
-        <v>0.1824951171875</v>
+        <v>0.266357421875</v>
       </c>
       <c r="K62">
-        <v>-0.9921875</v>
+        <v>-0.974609375</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3026,34 +3026,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1256103515625</v>
+        <v>0.2705078125</v>
       </c>
       <c r="C63">
-        <v>-0.03204345703125</v>
+        <v>-0.07965087890625</v>
       </c>
       <c r="D63">
-        <v>0.032318115234375</v>
+        <v>-0.04443359375</v>
       </c>
       <c r="E63">
-        <v>-0.5810546875</v>
+        <v>-0.465087890625</v>
       </c>
       <c r="F63">
-        <v>0.0198211669921875</v>
+        <v>0.01096343994140625</v>
       </c>
       <c r="G63">
-        <v>-0.82666015625</v>
+        <v>-0.80810546875</v>
       </c>
       <c r="H63">
-        <v>0.0833740234375</v>
+        <v>0.1260986328125</v>
       </c>
       <c r="I63">
-        <v>0.0198211669921875</v>
+        <v>0.01096343994140625</v>
       </c>
       <c r="J63">
-        <v>-0.5205078125</v>
+        <v>-0.62255859375</v>
       </c>
       <c r="K63">
-        <v>-0.88330078125</v>
+        <v>-0.92626953125</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3061,34 +3061,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.0377197265625</v>
+        <v>-0.03350830078125</v>
       </c>
       <c r="C64">
-        <v>-0.019775390625</v>
+        <v>0.0240631103515625</v>
       </c>
       <c r="D64">
-        <v>0.003513336181640625</v>
+        <v>-0.003726959228515625</v>
       </c>
       <c r="E64">
-        <v>-0.8916015625</v>
+        <v>-0.81787109375</v>
       </c>
       <c r="F64">
-        <v>-0.00801849365234375</v>
+        <v>0.0096588134765625</v>
       </c>
       <c r="G64">
-        <v>-0.9189453125</v>
+        <v>-0.908203125</v>
       </c>
       <c r="H64">
-        <v>0.07891845703125</v>
+        <v>0.09832763671875</v>
       </c>
       <c r="I64">
-        <v>-0.00801849365234375</v>
+        <v>0.0096588134765625</v>
       </c>
       <c r="J64">
-        <v>-0.51220703125</v>
+        <v>-0.5380859375</v>
       </c>
       <c r="K64">
-        <v>-0.9951171875</v>
+        <v>-0.98974609375</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3096,34 +3096,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2578125</v>
+        <v>0.275634765625</v>
       </c>
       <c r="C65">
-        <v>-0.29248046875</v>
+        <v>-0.338134765625</v>
       </c>
       <c r="D65">
-        <v>0.062042236328125</v>
+        <v>0.082275390625</v>
       </c>
       <c r="E65">
-        <v>-0.0222320556640625</v>
+        <v>0.1549072265625</v>
       </c>
       <c r="F65">
-        <v>0.09716796875</v>
+        <v>0.12322998046875</v>
       </c>
       <c r="G65">
-        <v>-0.241455078125</v>
+        <v>-0.3486328125</v>
       </c>
       <c r="H65">
-        <v>0.00589752197265625</v>
+        <v>-0.001105308532714844</v>
       </c>
       <c r="I65">
-        <v>0.09716796875</v>
+        <v>0.12322998046875</v>
       </c>
       <c r="J65">
-        <v>0.017425537109375</v>
+        <v>-0.4423828125</v>
       </c>
       <c r="K65">
-        <v>-0.7734375</v>
+        <v>-0.91943359375</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3131,34 +3131,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1676025390625</v>
+        <v>-0.01514434814453125</v>
       </c>
       <c r="C66">
-        <v>-0.011688232421875</v>
+        <v>-0.06494140625</v>
       </c>
       <c r="D66">
-        <v>-0.06304931640625</v>
+        <v>-0.0772705078125</v>
       </c>
       <c r="E66">
-        <v>0.82373046875</v>
+        <v>0.83349609375</v>
       </c>
       <c r="F66">
-        <v>0.172607421875</v>
+        <v>0.1861572265625</v>
       </c>
       <c r="G66">
-        <v>-0.8740234375</v>
+        <v>-0.96826171875</v>
       </c>
       <c r="H66">
-        <v>-0.0135498046875</v>
+        <v>-0.0244293212890625</v>
       </c>
       <c r="I66">
-        <v>0.172607421875</v>
+        <v>0.1861572265625</v>
       </c>
       <c r="J66">
-        <v>0.309326171875</v>
+        <v>-0.04052734375</v>
       </c>
       <c r="K66">
-        <v>0.411865234375</v>
+        <v>0.467041015625</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3166,34 +3166,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.046295166015625</v>
+        <v>0.140380859375</v>
       </c>
       <c r="C67">
-        <v>0.0029754638671875</v>
+        <v>0.0970458984375</v>
       </c>
       <c r="D67">
-        <v>-0.025115966796875</v>
+        <v>-0.0706787109375</v>
       </c>
       <c r="E67">
-        <v>-0.251220703125</v>
+        <v>-0.552734375</v>
       </c>
       <c r="F67">
-        <v>0.02783203125</v>
+        <v>0.07550048828125</v>
       </c>
       <c r="G67">
-        <v>-0.92236328125</v>
+        <v>-0.8125</v>
       </c>
       <c r="H67">
-        <v>-0.004428863525390625</v>
+        <v>0.0740966796875</v>
       </c>
       <c r="I67">
-        <v>0.02783203125</v>
+        <v>0.07550048828125</v>
       </c>
       <c r="J67">
-        <v>-0.15380859375</v>
+        <v>-0.2025146484375</v>
       </c>
       <c r="K67">
-        <v>-0.95849609375</v>
+        <v>-0.927734375</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3201,34 +3201,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.295654296875</v>
+        <v>0.07379150390625</v>
       </c>
       <c r="C68">
-        <v>-0.0316162109375</v>
+        <v>-0.038421630859375</v>
       </c>
       <c r="D68">
-        <v>-0.025238037109375</v>
+        <v>-0.07086181640625</v>
       </c>
       <c r="E68">
-        <v>-0.228759765625</v>
+        <v>-0.0206756591796875</v>
       </c>
       <c r="F68">
-        <v>0.1053466796875</v>
+        <v>0.18994140625</v>
       </c>
       <c r="G68">
-        <v>-0.931640625</v>
+        <v>-0.95947265625</v>
       </c>
       <c r="H68">
-        <v>0.04498291015625</v>
+        <v>0.0703125</v>
       </c>
       <c r="I68">
-        <v>0.1053466796875</v>
+        <v>0.18994140625</v>
       </c>
       <c r="J68">
-        <v>0.298828125</v>
+        <v>0.1593017578125</v>
       </c>
       <c r="K68">
-        <v>0.62548828125</v>
+        <v>0.80029296875</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3236,34 +3236,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1025390625</v>
+        <v>0.12164306640625</v>
       </c>
       <c r="C69">
-        <v>0.1475830078125</v>
+        <v>0.191162109375</v>
       </c>
       <c r="D69">
-        <v>-0.02227783203125</v>
+        <v>-0.0289764404296875</v>
       </c>
       <c r="E69">
-        <v>-0.8125</v>
+        <v>-0.71240234375</v>
       </c>
       <c r="F69">
-        <v>-0.06414794921875</v>
+        <v>-0.0191650390625</v>
       </c>
       <c r="G69">
-        <v>-0.07696533203125</v>
+        <v>-0.61279296875</v>
       </c>
       <c r="H69">
-        <v>0.07672119140625</v>
+        <v>0.1094970703125</v>
       </c>
       <c r="I69">
-        <v>-0.06414794921875</v>
+        <v>-0.0191650390625</v>
       </c>
       <c r="J69">
-        <v>-0.2166748046875</v>
+        <v>-0.059600830078125</v>
       </c>
       <c r="K69">
-        <v>-0.927734375</v>
+        <v>-0.93310546875</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3271,34 +3271,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.2724609375</v>
+        <v>0.245361328125</v>
       </c>
       <c r="C70">
-        <v>-0.380859375</v>
+        <v>-0.46826171875</v>
       </c>
       <c r="D70">
-        <v>0.04583740234375</v>
+        <v>0.109130859375</v>
       </c>
       <c r="E70">
-        <v>-0.68115234375</v>
+        <v>-0.9609375</v>
       </c>
       <c r="F70">
-        <v>0.27392578125</v>
+        <v>0.3056640625</v>
       </c>
       <c r="G70">
-        <v>-0.97314453125</v>
+        <v>-0.99365234375</v>
       </c>
       <c r="H70">
-        <v>0.09991455078125</v>
+        <v>0.084228515625</v>
       </c>
       <c r="I70">
-        <v>0.27392578125</v>
+        <v>0.3056640625</v>
       </c>
       <c r="J70">
-        <v>0.434326171875</v>
+        <v>0.253662109375</v>
       </c>
       <c r="K70">
-        <v>-0.96337890625</v>
+        <v>-0.98876953125</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3306,34 +3306,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2384033203125</v>
+        <v>-0.1353759765625</v>
       </c>
       <c r="C71">
-        <v>-0.0188751220703125</v>
+        <v>-0.11724853515625</v>
       </c>
       <c r="D71">
-        <v>0.1240234375</v>
+        <v>0.03680419921875</v>
       </c>
       <c r="E71">
-        <v>0.0550537109375</v>
+        <v>0.517578125</v>
       </c>
       <c r="F71">
-        <v>0.1395263671875</v>
+        <v>0.21484375</v>
       </c>
       <c r="G71">
-        <v>-0.931640625</v>
+        <v>-0.935546875</v>
       </c>
       <c r="H71">
-        <v>0.042449951171875</v>
+        <v>0.09710693359375</v>
       </c>
       <c r="I71">
-        <v>0.1395263671875</v>
+        <v>0.21484375</v>
       </c>
       <c r="J71">
-        <v>-0.07171630859375</v>
+        <v>-0.041473388671875</v>
       </c>
       <c r="K71">
-        <v>0.1241455078125</v>
+        <v>0.47314453125</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3341,34 +3341,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.304443359375</v>
+        <v>0.043121337890625</v>
       </c>
       <c r="C72">
-        <v>-0.07666015625</v>
+        <v>-0.032440185546875</v>
       </c>
       <c r="D72">
-        <v>0.052154541015625</v>
+        <v>0.04296875</v>
       </c>
       <c r="E72">
-        <v>-0.75732421875</v>
+        <v>-0.74365234375</v>
       </c>
       <c r="F72">
-        <v>0.06524658203125</v>
+        <v>0.0301513671875</v>
       </c>
       <c r="G72">
-        <v>-0.9814453125</v>
+        <v>-0.9716796875</v>
       </c>
       <c r="H72">
-        <v>0.004833221435546875</v>
+        <v>-1.65104866027832E-05</v>
       </c>
       <c r="I72">
-        <v>0.06524658203125</v>
+        <v>0.0301513671875</v>
       </c>
       <c r="J72">
-        <v>-0.008056640625</v>
+        <v>-0.039031982421875</v>
       </c>
       <c r="K72">
-        <v>-0.98681640625</v>
+        <v>-0.95361328125</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3376,34 +3376,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1409912109375</v>
+        <v>0.01044464111328125</v>
       </c>
       <c r="C73">
-        <v>0.07781982421875</v>
+        <v>0.072265625</v>
       </c>
       <c r="D73">
-        <v>-0.01050567626953125</v>
+        <v>-0.0004689693450927734</v>
       </c>
       <c r="E73">
-        <v>-0.5966796875</v>
+        <v>-0.73046875</v>
       </c>
       <c r="F73">
-        <v>0.017608642578125</v>
+        <v>0.07666015625</v>
       </c>
       <c r="G73">
-        <v>-0.94580078125</v>
+        <v>-0.9697265625</v>
       </c>
       <c r="H73">
-        <v>0.11700439453125</v>
+        <v>0.1529541015625</v>
       </c>
       <c r="I73">
-        <v>0.017608642578125</v>
+        <v>0.07666015625</v>
       </c>
       <c r="J73">
-        <v>-0.1898193359375</v>
+        <v>-0.033111572265625</v>
       </c>
       <c r="K73">
-        <v>-0.99462890625</v>
+        <v>-0.998046875</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3411,34 +3411,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.194580078125</v>
+        <v>0.1883544921875</v>
       </c>
       <c r="C74">
-        <v>-0.1304931640625</v>
+        <v>-0.0799560546875</v>
       </c>
       <c r="D74">
-        <v>0.03668212890625</v>
+        <v>0.0343017578125</v>
       </c>
       <c r="E74">
-        <v>-0.450439453125</v>
+        <v>-0.677734375</v>
       </c>
       <c r="F74">
-        <v>0.0831298828125</v>
+        <v>0.08123779296875</v>
       </c>
       <c r="G74">
-        <v>-0.7841796875</v>
+        <v>-0.830078125</v>
       </c>
       <c r="H74">
-        <v>0.083740234375</v>
+        <v>0.0909423828125</v>
       </c>
       <c r="I74">
-        <v>0.0831298828125</v>
+        <v>0.08123779296875</v>
       </c>
       <c r="J74">
-        <v>0.28564453125</v>
+        <v>0.2269287109375</v>
       </c>
       <c r="K74">
-        <v>-0.60546875</v>
+        <v>-0.83740234375</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3446,34 +3446,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.291015625</v>
+        <v>-0.31884765625</v>
       </c>
       <c r="C75">
-        <v>0.0207672119140625</v>
+        <v>-0.064208984375</v>
       </c>
       <c r="D75">
-        <v>0.00791168212890625</v>
+        <v>-0.00382232666015625</v>
       </c>
       <c r="E75">
-        <v>-0.54736328125</v>
+        <v>-0.5703125</v>
       </c>
       <c r="F75">
-        <v>0.0615234375</v>
+        <v>0.12103271484375</v>
       </c>
       <c r="G75">
-        <v>-0.5400390625</v>
+        <v>-0.87255859375</v>
       </c>
       <c r="H75">
-        <v>0.04034423828125</v>
+        <v>0.09075927734375</v>
       </c>
       <c r="I75">
-        <v>0.0615234375</v>
+        <v>0.12103271484375</v>
       </c>
       <c r="J75">
-        <v>-0.2183837890625</v>
+        <v>-0.1903076171875</v>
       </c>
       <c r="K75">
-        <v>-0.8466796875</v>
+        <v>-0.91748046875</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3481,34 +3481,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.361328125</v>
+        <v>0.332763671875</v>
       </c>
       <c r="C76">
-        <v>0.0826416015625</v>
+        <v>0.0225067138671875</v>
       </c>
       <c r="D76">
-        <v>0.020965576171875</v>
+        <v>0.014251708984375</v>
       </c>
       <c r="E76">
-        <v>-0.44140625</v>
+        <v>-0.55615234375</v>
       </c>
       <c r="F76">
-        <v>0.139404296875</v>
+        <v>0.1910400390625</v>
       </c>
       <c r="G76">
-        <v>-0.685546875</v>
+        <v>-0.82421875</v>
       </c>
       <c r="H76">
-        <v>0.07305908203125</v>
+        <v>0.04638671875</v>
       </c>
       <c r="I76">
-        <v>0.139404296875</v>
+        <v>0.1910400390625</v>
       </c>
       <c r="J76">
-        <v>0.220703125</v>
+        <v>0.37060546875</v>
       </c>
       <c r="K76">
-        <v>-0.9736328125</v>
+        <v>-0.97021484375</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3516,34 +3516,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.135986328125</v>
+        <v>0.148681640625</v>
       </c>
       <c r="C77">
-        <v>-0.1776123046875</v>
+        <v>-0.2291259765625</v>
       </c>
       <c r="D77">
-        <v>-0.037200927734375</v>
+        <v>-0.04461669921875</v>
       </c>
       <c r="E77">
-        <v>-0.8671875</v>
+        <v>-0.78564453125</v>
       </c>
       <c r="F77">
-        <v>0.0254974365234375</v>
+        <v>0.0296630859375</v>
       </c>
       <c r="G77">
-        <v>-0.94482421875</v>
+        <v>-0.94384765625</v>
       </c>
       <c r="H77">
-        <v>0.07281494140625</v>
+        <v>0.076416015625</v>
       </c>
       <c r="I77">
-        <v>0.0254974365234375</v>
+        <v>0.0296630859375</v>
       </c>
       <c r="J77">
-        <v>0.52001953125</v>
+        <v>0.38671875</v>
       </c>
       <c r="K77">
-        <v>-0.97998046875</v>
+        <v>-0.9765625</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3551,34 +3551,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.3466796875</v>
+        <v>0.30517578125</v>
       </c>
       <c r="C78">
-        <v>0.2376708984375</v>
+        <v>0.271728515625</v>
       </c>
       <c r="D78">
-        <v>-0.00939178466796875</v>
+        <v>-0.041015625</v>
       </c>
       <c r="E78">
-        <v>-0.09930419921875</v>
+        <v>0.054290771484375</v>
       </c>
       <c r="F78">
-        <v>0.037109375</v>
+        <v>0.10150146484375</v>
       </c>
       <c r="G78">
-        <v>-0.9775390625</v>
+        <v>-0.97216796875</v>
       </c>
       <c r="H78">
-        <v>0.05810546875</v>
+        <v>0.11566162109375</v>
       </c>
       <c r="I78">
-        <v>0.037109375</v>
+        <v>0.10150146484375</v>
       </c>
       <c r="J78">
-        <v>-0.0946044921875</v>
+        <v>0.029449462890625</v>
       </c>
       <c r="K78">
-        <v>-0.97314453125</v>
+        <v>-0.98486328125</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3586,34 +3586,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.055877685546875</v>
+        <v>0.2177734375</v>
       </c>
       <c r="C79">
-        <v>0.17822265625</v>
+        <v>0.190673828125</v>
       </c>
       <c r="D79">
-        <v>-0.01036834716796875</v>
+        <v>-0.023895263671875</v>
       </c>
       <c r="E79">
-        <v>-0.85302734375</v>
+        <v>-0.94091796875</v>
       </c>
       <c r="F79">
-        <v>0.047943115234375</v>
+        <v>0.0269317626953125</v>
       </c>
       <c r="G79">
-        <v>-0.97509765625</v>
+        <v>-0.87158203125</v>
       </c>
       <c r="H79">
-        <v>0.1619873046875</v>
+        <v>0.20166015625</v>
       </c>
       <c r="I79">
-        <v>0.047943115234375</v>
+        <v>0.0269317626953125</v>
       </c>
       <c r="J79">
-        <v>-0.4404296875</v>
+        <v>-0.428955078125</v>
       </c>
       <c r="K79">
-        <v>-0.99462890625</v>
+        <v>-0.99853515625</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3621,34 +3621,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.00461578369140625</v>
+        <v>0.029754638671875</v>
       </c>
       <c r="C80">
-        <v>0.11614990234375</v>
+        <v>0.161865234375</v>
       </c>
       <c r="D80">
-        <v>0.00397491455078125</v>
+        <v>0.055694580078125</v>
       </c>
       <c r="E80">
-        <v>-0.71240234375</v>
+        <v>-0.56103515625</v>
       </c>
       <c r="F80">
-        <v>-0.08807373046875</v>
+        <v>-0.10382080078125</v>
       </c>
       <c r="G80">
-        <v>-0.80712890625</v>
+        <v>-0.8525390625</v>
       </c>
       <c r="H80">
-        <v>0.047393798828125</v>
+        <v>0.055572509765625</v>
       </c>
       <c r="I80">
-        <v>-0.08807373046875</v>
+        <v>-0.10382080078125</v>
       </c>
       <c r="J80">
-        <v>-0.271728515625</v>
+        <v>-0.424560546875</v>
       </c>
       <c r="K80">
-        <v>-0.87646484375</v>
+        <v>-0.97265625</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3656,34 +3656,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.08966064453125</v>
+        <v>-0.0135040283203125</v>
       </c>
       <c r="C81">
-        <v>0.0665283203125</v>
+        <v>0.00569915771484375</v>
       </c>
       <c r="D81">
-        <v>0.0172882080078125</v>
+        <v>0.003274917602539062</v>
       </c>
       <c r="E81">
-        <v>-0.2138671875</v>
+        <v>-0.244873046875</v>
       </c>
       <c r="F81">
-        <v>0.09136962890625</v>
+        <v>0.04205322265625</v>
       </c>
       <c r="G81">
-        <v>-0.64013671875</v>
+        <v>0.116943359375</v>
       </c>
       <c r="H81">
-        <v>0.01528167724609375</v>
+        <v>0.041351318359375</v>
       </c>
       <c r="I81">
-        <v>0.09136962890625</v>
+        <v>0.04205322265625</v>
       </c>
       <c r="J81">
-        <v>0.28662109375</v>
+        <v>-0.2252197265625</v>
       </c>
       <c r="K81">
-        <v>-0.935546875</v>
+        <v>-0.93896484375</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3691,34 +3691,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.313720703125</v>
+        <v>0.337646484375</v>
       </c>
       <c r="C82">
-        <v>0.09735107421875</v>
+        <v>0.12481689453125</v>
       </c>
       <c r="D82">
-        <v>0.02349853515625</v>
+        <v>-0.01343536376953125</v>
       </c>
       <c r="E82">
-        <v>0.1788330078125</v>
+        <v>0.21044921875</v>
       </c>
       <c r="F82">
-        <v>0.0081329345703125</v>
+        <v>0.0214080810546875</v>
       </c>
       <c r="G82">
-        <v>-0.9462890625</v>
+        <v>-0.6767578125</v>
       </c>
       <c r="H82">
-        <v>0.06866455078125</v>
+        <v>0.03277587890625</v>
       </c>
       <c r="I82">
-        <v>0.0081329345703125</v>
+        <v>0.0214080810546875</v>
       </c>
       <c r="J82">
-        <v>-0.333251953125</v>
+        <v>-0.09466552734375</v>
       </c>
       <c r="K82">
-        <v>-0.80908203125</v>
+        <v>-0.74609375</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3726,34 +3726,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.07818603515625</v>
+        <v>-0.002132415771484375</v>
       </c>
       <c r="C83">
-        <v>0.119140625</v>
+        <v>0.049346923828125</v>
       </c>
       <c r="D83">
-        <v>0.031005859375</v>
+        <v>0.062103271484375</v>
       </c>
       <c r="E83">
-        <v>-0.611328125</v>
+        <v>-0.456298828125</v>
       </c>
       <c r="F83">
-        <v>0.09844970703125</v>
+        <v>0.146728515625</v>
       </c>
       <c r="G83">
-        <v>-0.96630859375</v>
+        <v>-0.9833984375</v>
       </c>
       <c r="H83">
-        <v>0.034576416015625</v>
+        <v>0.08026123046875</v>
       </c>
       <c r="I83">
-        <v>0.09844970703125</v>
+        <v>0.146728515625</v>
       </c>
       <c r="J83">
-        <v>0.01287841796875</v>
+        <v>-0.0474853515625</v>
       </c>
       <c r="K83">
-        <v>-0.9697265625</v>
+        <v>-0.97021484375</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3761,34 +3761,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.09344482421875</v>
+        <v>-0.167236328125</v>
       </c>
       <c r="C84">
-        <v>-0.08734130859375</v>
+        <v>-0.1890869140625</v>
       </c>
       <c r="D84">
-        <v>0.0267181396484375</v>
+        <v>0.01457977294921875</v>
       </c>
       <c r="E84">
-        <v>-0.814453125</v>
+        <v>-0.7177734375</v>
       </c>
       <c r="F84">
-        <v>0.13232421875</v>
+        <v>0.181884765625</v>
       </c>
       <c r="G84">
-        <v>-0.97998046875</v>
+        <v>-0.890625</v>
       </c>
       <c r="H84">
-        <v>0.026824951171875</v>
+        <v>0.05303955078125</v>
       </c>
       <c r="I84">
-        <v>0.13232421875</v>
+        <v>0.181884765625</v>
       </c>
       <c r="J84">
-        <v>0.266845703125</v>
+        <v>0.351318359375</v>
       </c>
       <c r="K84">
-        <v>-0.8505859375</v>
+        <v>-0.92041015625</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3796,34 +3796,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.409912109375</v>
+        <v>0.141845703125</v>
       </c>
       <c r="C85">
-        <v>-0.2086181640625</v>
+        <v>-0.26904296875</v>
       </c>
       <c r="D85">
-        <v>0.005031585693359375</v>
+        <v>-0.001539230346679688</v>
       </c>
       <c r="E85">
-        <v>-0.489013671875</v>
+        <v>-0.302490234375</v>
       </c>
       <c r="F85">
-        <v>0.1036376953125</v>
+        <v>0.1910400390625</v>
       </c>
       <c r="G85">
-        <v>-0.986328125</v>
+        <v>-0.99853515625</v>
       </c>
       <c r="H85">
-        <v>-0.0199127197265625</v>
+        <v>0.0193939208984375</v>
       </c>
       <c r="I85">
-        <v>0.1036376953125</v>
+        <v>0.1910400390625</v>
       </c>
       <c r="J85">
-        <v>0.08892822265625</v>
+        <v>0.06573486328125</v>
       </c>
       <c r="K85">
-        <v>-0.99609375</v>
+        <v>-0.9892578125</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3831,34 +3831,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.450439453125</v>
+        <v>0.48486328125</v>
       </c>
       <c r="C86">
-        <v>0.26123046875</v>
+        <v>0.268310546875</v>
       </c>
       <c r="D86">
-        <v>0.03314208984375</v>
+        <v>0.0836181640625</v>
       </c>
       <c r="E86">
-        <v>-0.92822265625</v>
+        <v>-0.958984375</v>
       </c>
       <c r="F86">
-        <v>-0.040313720703125</v>
+        <v>-0.108154296875</v>
       </c>
       <c r="G86">
-        <v>-0.9404296875</v>
+        <v>-0.8515625</v>
       </c>
       <c r="H86">
-        <v>0.10198974609375</v>
+        <v>0.1158447265625</v>
       </c>
       <c r="I86">
-        <v>-0.040313720703125</v>
+        <v>-0.108154296875</v>
       </c>
       <c r="J86">
-        <v>0.10174560546875</v>
+        <v>-0.05523681640625</v>
       </c>
       <c r="K86">
-        <v>-0.98388671875</v>
+        <v>-0.99365234375</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3866,34 +3866,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1368408203125</v>
+        <v>0.09912109375</v>
       </c>
       <c r="C87">
-        <v>0.001955032348632812</v>
+        <v>-0.12017822265625</v>
       </c>
       <c r="D87">
-        <v>0.03326416015625</v>
+        <v>0.111083984375</v>
       </c>
       <c r="E87">
-        <v>-0.6015625</v>
+        <v>-0.4716796875</v>
       </c>
       <c r="F87">
-        <v>0.056396484375</v>
+        <v>0.052398681640625</v>
       </c>
       <c r="G87">
-        <v>-0.99560546875</v>
+        <v>-0.9892578125</v>
       </c>
       <c r="H87">
-        <v>0.052703857421875</v>
+        <v>0.015838623046875</v>
       </c>
       <c r="I87">
-        <v>0.056396484375</v>
+        <v>0.052398681640625</v>
       </c>
       <c r="J87">
-        <v>-0.07977294921875</v>
+        <v>-0.09857177734375</v>
       </c>
       <c r="K87">
-        <v>-0.626953125</v>
+        <v>-0.72119140625</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3901,34 +3901,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0882568359375</v>
+        <v>0.028076171875</v>
       </c>
       <c r="C88">
-        <v>-0.0191497802734375</v>
+        <v>-0.0989990234375</v>
       </c>
       <c r="D88">
-        <v>-0.0540771484375</v>
+        <v>-0.042205810546875</v>
       </c>
       <c r="E88">
-        <v>-0.6123046875</v>
+        <v>-0.468994140625</v>
       </c>
       <c r="F88">
-        <v>0.1146240234375</v>
+        <v>0.1385498046875</v>
       </c>
       <c r="G88">
-        <v>-0.75927734375</v>
+        <v>-0.48779296875</v>
       </c>
       <c r="H88">
-        <v>0.04864501953125</v>
+        <v>0.10577392578125</v>
       </c>
       <c r="I88">
-        <v>0.1146240234375</v>
+        <v>0.1385498046875</v>
       </c>
       <c r="J88">
-        <v>-0.302490234375</v>
+        <v>-0.209716796875</v>
       </c>
       <c r="K88">
-        <v>-0.9599609375</v>
+        <v>-0.984375</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3936,34 +3936,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.259765625</v>
+        <v>0.2337646484375</v>
       </c>
       <c r="C89">
-        <v>0.017242431640625</v>
+        <v>0.06317138671875</v>
       </c>
       <c r="D89">
-        <v>0.007305145263671875</v>
+        <v>-0.0121002197265625</v>
       </c>
       <c r="E89">
-        <v>-0.083251953125</v>
+        <v>-0.298583984375</v>
       </c>
       <c r="F89">
-        <v>0.04144287109375</v>
+        <v>0.0662841796875</v>
       </c>
       <c r="G89">
-        <v>-0.92333984375</v>
+        <v>-0.95947265625</v>
       </c>
       <c r="H89">
-        <v>-0.01047515869140625</v>
+        <v>0.0572509765625</v>
       </c>
       <c r="I89">
-        <v>0.04144287109375</v>
+        <v>0.0662841796875</v>
       </c>
       <c r="J89">
-        <v>-0.054168701171875</v>
+        <v>-0.308837890625</v>
       </c>
       <c r="K89">
-        <v>-0.95849609375</v>
+        <v>-0.98291015625</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3971,34 +3971,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.2471923828125</v>
+        <v>0.279296875</v>
       </c>
       <c r="C90">
-        <v>-0.0011138916015625</v>
+        <v>0.0159759521484375</v>
       </c>
       <c r="D90">
-        <v>0.0121002197265625</v>
+        <v>-0.003284454345703125</v>
       </c>
       <c r="E90">
-        <v>-0.351806640625</v>
+        <v>-0.552734375</v>
       </c>
       <c r="F90">
-        <v>0.06488037109375</v>
+        <v>0.0753173828125</v>
       </c>
       <c r="G90">
-        <v>-0.927734375</v>
+        <v>-0.869140625</v>
       </c>
       <c r="H90">
-        <v>0.04351806640625</v>
+        <v>0.064697265625</v>
       </c>
       <c r="I90">
-        <v>0.06488037109375</v>
+        <v>0.0753173828125</v>
       </c>
       <c r="J90">
-        <v>-0.1845703125</v>
+        <v>-0.1832275390625</v>
       </c>
       <c r="K90">
-        <v>-0.98388671875</v>
+        <v>-0.9931640625</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4006,34 +4006,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.09814453125</v>
+        <v>0.133056640625</v>
       </c>
       <c r="C91">
-        <v>0.09417724609375</v>
+        <v>0.050201416015625</v>
       </c>
       <c r="D91">
-        <v>-0.001134872436523438</v>
+        <v>-0.0083465576171875</v>
       </c>
       <c r="E91">
-        <v>-0.1658935546875</v>
+        <v>-0.2174072265625</v>
       </c>
       <c r="F91">
-        <v>0.0458984375</v>
+        <v>0.076171875</v>
       </c>
       <c r="G91">
-        <v>-0.501953125</v>
+        <v>-0.5166015625</v>
       </c>
       <c r="H91">
-        <v>0.07232666015625</v>
+        <v>0.11102294921875</v>
       </c>
       <c r="I91">
-        <v>0.0458984375</v>
+        <v>0.076171875</v>
       </c>
       <c r="J91">
-        <v>-0.327880859375</v>
+        <v>-0.148193359375</v>
       </c>
       <c r="K91">
-        <v>-0.87255859375</v>
+        <v>-0.97412109375</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4041,34 +4041,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1685791015625</v>
+        <v>0.52880859375</v>
       </c>
       <c r="C92">
-        <v>-0.11419677734375</v>
+        <v>-0.1285400390625</v>
       </c>
       <c r="D92">
-        <v>0.056488037109375</v>
+        <v>0.003793716430664062</v>
       </c>
       <c r="E92">
-        <v>-0.86669921875</v>
+        <v>-0.83984375</v>
       </c>
       <c r="F92">
-        <v>0.1168212890625</v>
+        <v>0.1787109375</v>
       </c>
       <c r="G92">
-        <v>-0.986328125</v>
+        <v>-0.99365234375</v>
       </c>
       <c r="H92">
-        <v>0.05303955078125</v>
+        <v>0.068359375</v>
       </c>
       <c r="I92">
-        <v>0.1168212890625</v>
+        <v>0.1787109375</v>
       </c>
       <c r="J92">
-        <v>0.320556640625</v>
+        <v>0.461181640625</v>
       </c>
       <c r="K92">
-        <v>-0.98486328125</v>
+        <v>-0.98876953125</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4076,34 +4076,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.09881591796875</v>
+        <v>-0.00473785400390625</v>
       </c>
       <c r="C93">
-        <v>0.08502197265625</v>
+        <v>0.0775146484375</v>
       </c>
       <c r="D93">
-        <v>-0.002641677856445312</v>
+        <v>-0.0193023681640625</v>
       </c>
       <c r="E93">
-        <v>-0.168701171875</v>
+        <v>0.0457763671875</v>
       </c>
       <c r="F93">
-        <v>0.06805419921875</v>
+        <v>0.1339111328125</v>
       </c>
       <c r="G93">
-        <v>-0.361083984375</v>
+        <v>0.0718994140625</v>
       </c>
       <c r="H93">
-        <v>0.06219482421875</v>
+        <v>0.09185791015625</v>
       </c>
       <c r="I93">
-        <v>0.06805419921875</v>
+        <v>0.1339111328125</v>
       </c>
       <c r="J93">
-        <v>-0.1500244140625</v>
+        <v>-0.25390625</v>
       </c>
       <c r="K93">
-        <v>-0.97900390625</v>
+        <v>-0.95751953125</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4111,34 +4111,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.3828125</v>
+        <v>0.380859375</v>
       </c>
       <c r="C94">
-        <v>-0.279052734375</v>
+        <v>-0.302978515625</v>
       </c>
       <c r="D94">
-        <v>0.01049041748046875</v>
+        <v>0.0286712646484375</v>
       </c>
       <c r="E94">
-        <v>-0.67333984375</v>
+        <v>-0.583984375</v>
       </c>
       <c r="F94">
-        <v>0.047515869140625</v>
+        <v>0.084228515625</v>
       </c>
       <c r="G94">
-        <v>-0.9052734375</v>
+        <v>-0.89501953125</v>
       </c>
       <c r="H94">
-        <v>0.06646728515625</v>
+        <v>0.09014892578125</v>
       </c>
       <c r="I94">
-        <v>0.047515869140625</v>
+        <v>0.084228515625</v>
       </c>
       <c r="J94">
-        <v>-0.252197265625</v>
+        <v>0.0190277099609375</v>
       </c>
       <c r="K94">
-        <v>-0.99609375</v>
+        <v>-0.90673828125</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4146,34 +4146,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.09423828125</v>
+        <v>0.1219482421875</v>
       </c>
       <c r="C95">
-        <v>0.057647705078125</v>
+        <v>-0.031463623046875</v>
       </c>
       <c r="D95">
-        <v>0.06597900390625</v>
+        <v>0.0667724609375</v>
       </c>
       <c r="E95">
-        <v>-0.71728515625</v>
+        <v>-0.422607421875</v>
       </c>
       <c r="F95">
-        <v>0.11920166015625</v>
+        <v>0.09161376953125</v>
       </c>
       <c r="G95">
-        <v>-0.2388916015625</v>
+        <v>0.457763671875</v>
       </c>
       <c r="H95">
-        <v>0.0297088623046875</v>
+        <v>0.0257415771484375</v>
       </c>
       <c r="I95">
-        <v>0.11920166015625</v>
+        <v>0.09161376953125</v>
       </c>
       <c r="J95">
-        <v>0.1595458984375</v>
+        <v>0.053985595703125</v>
       </c>
       <c r="K95">
-        <v>-0.81982421875</v>
+        <v>-0.845703125</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4181,34 +4181,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.13623046875</v>
+        <v>-0.010101318359375</v>
       </c>
       <c r="C96">
-        <v>-0.2308349609375</v>
+        <v>-0.340576171875</v>
       </c>
       <c r="D96">
-        <v>-0.07012939453125</v>
+        <v>-0.0948486328125</v>
       </c>
       <c r="E96">
-        <v>-0.70751953125</v>
+        <v>-0.5625</v>
       </c>
       <c r="F96">
-        <v>0.1868896484375</v>
+        <v>0.2127685546875</v>
       </c>
       <c r="G96">
-        <v>-0.91943359375</v>
+        <v>-0.890625</v>
       </c>
       <c r="H96">
-        <v>-0.038421630859375</v>
+        <v>-0.0304107666015625</v>
       </c>
       <c r="I96">
-        <v>0.1868896484375</v>
+        <v>0.2127685546875</v>
       </c>
       <c r="J96">
-        <v>0.1573486328125</v>
+        <v>0.007328033447265625</v>
       </c>
       <c r="K96">
-        <v>-0.9931640625</v>
+        <v>-0.99365234375</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4216,34 +4216,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1514892578125</v>
+        <v>0.005870819091796875</v>
       </c>
       <c r="C97">
-        <v>0.0782470703125</v>
+        <v>0.1053466796875</v>
       </c>
       <c r="D97">
-        <v>-0.04742431640625</v>
+        <v>-0.06298828125</v>
       </c>
       <c r="E97">
-        <v>-0.251953125</v>
+        <v>-0.6083984375</v>
       </c>
       <c r="F97">
-        <v>0.0254364013671875</v>
+        <v>-0.049163818359375</v>
       </c>
       <c r="G97">
-        <v>0.255859375</v>
+        <v>-0.050048828125</v>
       </c>
       <c r="H97">
-        <v>0.08154296875</v>
+        <v>0.115234375</v>
       </c>
       <c r="I97">
-        <v>0.0254364013671875</v>
+        <v>-0.049163818359375</v>
       </c>
       <c r="J97">
-        <v>-0.061798095703125</v>
+        <v>-0.30126953125</v>
       </c>
       <c r="K97">
-        <v>-0.74560546875</v>
+        <v>-0.7998046875</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4251,34 +4251,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.00762939453125</v>
+        <v>0.046112060546875</v>
       </c>
       <c r="C98">
-        <v>-0.0872802734375</v>
+        <v>-0.186279296875</v>
       </c>
       <c r="D98">
-        <v>-0.0160980224609375</v>
+        <v>-5.340576171875E-05</v>
       </c>
       <c r="E98">
-        <v>-0.5302734375</v>
+        <v>-0.398681640625</v>
       </c>
       <c r="F98">
-        <v>0.0169525146484375</v>
+        <v>0.055389404296875</v>
       </c>
       <c r="G98">
-        <v>-0.79833984375</v>
+        <v>-0.89990234375</v>
       </c>
       <c r="H98">
-        <v>0.02825927734375</v>
+        <v>0.01329803466796875</v>
       </c>
       <c r="I98">
-        <v>0.0169525146484375</v>
+        <v>0.055389404296875</v>
       </c>
       <c r="J98">
-        <v>0.1026611328125</v>
+        <v>0.202880859375</v>
       </c>
       <c r="K98">
-        <v>-0.93798828125</v>
+        <v>-0.9462890625</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4286,34 +4286,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.158935546875</v>
+        <v>-0.231689453125</v>
       </c>
       <c r="C99">
-        <v>0.06329345703125</v>
+        <v>0.025115966796875</v>
       </c>
       <c r="D99">
-        <v>0.02093505859375</v>
+        <v>0.03466796875</v>
       </c>
       <c r="E99">
-        <v>-0.521484375</v>
+        <v>-0.4765625</v>
       </c>
       <c r="F99">
-        <v>0.040283203125</v>
+        <v>0.0307464599609375</v>
       </c>
       <c r="G99">
-        <v>-0.7314453125</v>
+        <v>-0.432373046875</v>
       </c>
       <c r="H99">
-        <v>0.049713134765625</v>
+        <v>0.0687255859375</v>
       </c>
       <c r="I99">
-        <v>0.040283203125</v>
+        <v>0.0307464599609375</v>
       </c>
       <c r="J99">
-        <v>-0.27685546875</v>
+        <v>-0.490478515625</v>
       </c>
       <c r="K99">
-        <v>-0.92333984375</v>
+        <v>-0.98291015625</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4321,34 +4321,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.00673675537109375</v>
+        <v>0.1998291015625</v>
       </c>
       <c r="C100">
-        <v>0.06427001953125</v>
+        <v>0.0089111328125</v>
       </c>
       <c r="D100">
-        <v>0.062469482421875</v>
+        <v>0.06689453125</v>
       </c>
       <c r="E100">
-        <v>0.27294921875</v>
+        <v>0.66650390625</v>
       </c>
       <c r="F100">
-        <v>0.058929443359375</v>
+        <v>0.1124267578125</v>
       </c>
       <c r="G100">
-        <v>0.568359375</v>
+        <v>0.7041015625</v>
       </c>
       <c r="H100">
-        <v>0.024444580078125</v>
+        <v>0.03582763671875</v>
       </c>
       <c r="I100">
-        <v>0.058929443359375</v>
+        <v>0.1124267578125</v>
       </c>
       <c r="J100">
-        <v>-0.006671905517578125</v>
+        <v>0.161865234375</v>
       </c>
       <c r="K100">
-        <v>0.1004638671875</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4356,34 +4356,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.263916015625</v>
+        <v>0.1953125</v>
       </c>
       <c r="C101">
-        <v>0.0128936767578125</v>
+        <v>0.03826904296875</v>
       </c>
       <c r="D101">
-        <v>0.01174163818359375</v>
+        <v>-0.019500732421875</v>
       </c>
       <c r="E101">
-        <v>-0.70263671875</v>
+        <v>-0.61962890625</v>
       </c>
       <c r="F101">
-        <v>-0.0001198649406433105</v>
+        <v>-0.08392333984375</v>
       </c>
       <c r="G101">
-        <v>-0.98828125</v>
+        <v>-0.9951171875</v>
       </c>
       <c r="H101">
-        <v>0.10595703125</v>
+        <v>0.1004638671875</v>
       </c>
       <c r="I101">
-        <v>-0.0001198649406433105</v>
+        <v>-0.08392333984375</v>
       </c>
       <c r="J101">
-        <v>-0.1920166015625</v>
+        <v>-0.08172607421875</v>
       </c>
       <c r="K101">
-        <v>-0.96728515625</v>
+        <v>-0.984375</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4391,34 +4391,34 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.1513671875</v>
+        <v>0.10595703125</v>
       </c>
       <c r="C102">
-        <v>0.138427734375</v>
+        <v>0.0408935546875</v>
       </c>
       <c r="D102">
-        <v>0.00739288330078125</v>
+        <v>-0.0277099609375</v>
       </c>
       <c r="E102">
-        <v>-0.008636474609375</v>
+        <v>-0.1776123046875</v>
       </c>
       <c r="F102">
-        <v>0.001783370971679688</v>
+        <v>-0.03857421875</v>
       </c>
       <c r="G102">
-        <v>-0.6865234375</v>
+        <v>-0.66552734375</v>
       </c>
       <c r="H102">
-        <v>0.03192138671875</v>
+        <v>0.066162109375</v>
       </c>
       <c r="I102">
-        <v>0.001783370971679688</v>
+        <v>-0.03857421875</v>
       </c>
       <c r="J102">
-        <v>-0.2158203125</v>
+        <v>-0.276611328125</v>
       </c>
       <c r="K102">
-        <v>-0.92626953125</v>
+        <v>-0.97265625</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4426,34 +4426,34 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.09716796875</v>
+        <v>0.0307464599609375</v>
       </c>
       <c r="C103">
-        <v>0.05682373046875</v>
+        <v>0.0211639404296875</v>
       </c>
       <c r="D103">
-        <v>0.01812744140625</v>
+        <v>0.0185699462890625</v>
       </c>
       <c r="E103">
-        <v>-0.394287109375</v>
+        <v>-0.5830078125</v>
       </c>
       <c r="F103">
-        <v>0.11114501953125</v>
+        <v>0.09918212890625</v>
       </c>
       <c r="G103">
-        <v>-0.984375</v>
+        <v>-0.97412109375</v>
       </c>
       <c r="H103">
-        <v>0.0124969482421875</v>
+        <v>0.039459228515625</v>
       </c>
       <c r="I103">
-        <v>0.11114501953125</v>
+        <v>0.09918212890625</v>
       </c>
       <c r="J103">
-        <v>0.2213134765625</v>
+        <v>0.017120361328125</v>
       </c>
       <c r="K103">
-        <v>0.9794921875</v>
+        <v>0.9853515625</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4461,34 +4461,34 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.208251953125</v>
+        <v>-0.1163330078125</v>
       </c>
       <c r="C104">
-        <v>-0.1558837890625</v>
+        <v>-0.223876953125</v>
       </c>
       <c r="D104">
-        <v>0.06573486328125</v>
+        <v>0.07635498046875</v>
       </c>
       <c r="E104">
-        <v>-0.387939453125</v>
+        <v>-0.74169921875</v>
       </c>
       <c r="F104">
-        <v>0.0982666015625</v>
+        <v>0.13037109375</v>
       </c>
       <c r="G104">
-        <v>-0.662109375</v>
+        <v>-0.9169921875</v>
       </c>
       <c r="H104">
-        <v>0.1068115234375</v>
+        <v>0.1197509765625</v>
       </c>
       <c r="I104">
-        <v>0.0982666015625</v>
+        <v>0.13037109375</v>
       </c>
       <c r="J104">
-        <v>0.0345458984375</v>
+        <v>0.181884765625</v>
       </c>
       <c r="K104">
-        <v>-0.74658203125</v>
+        <v>-0.84619140625</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4496,34 +4496,34 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.234130859375</v>
+        <v>0.08380126953125</v>
       </c>
       <c r="C105">
-        <v>0.004184722900390625</v>
+        <v>0.06072998046875</v>
       </c>
       <c r="D105">
-        <v>0.040740966796875</v>
+        <v>0.084228515625</v>
       </c>
       <c r="E105">
-        <v>-0.7333984375</v>
+        <v>-0.9365234375</v>
       </c>
       <c r="F105">
-        <v>-0.019439697265625</v>
+        <v>-0.05084228515625</v>
       </c>
       <c r="G105">
-        <v>-0.99365234375</v>
+        <v>-0.9951171875</v>
       </c>
       <c r="H105">
-        <v>0.04449462890625</v>
+        <v>0.125244140625</v>
       </c>
       <c r="I105">
-        <v>-0.019439697265625</v>
+        <v>-0.05084228515625</v>
       </c>
       <c r="J105">
-        <v>0.0002294778823852539</v>
+        <v>-0.263671875</v>
       </c>
       <c r="K105">
-        <v>-0.98193359375</v>
+        <v>-0.9970703125</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4531,34 +4531,34 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.0245208740234375</v>
+        <v>-0.027679443359375</v>
       </c>
       <c r="C106">
-        <v>0.0134429931640625</v>
+        <v>0.030609130859375</v>
       </c>
       <c r="D106">
-        <v>-0.045806884765625</v>
+        <v>-0.061981201171875</v>
       </c>
       <c r="E106">
-        <v>-0.794921875</v>
+        <v>-0.67919921875</v>
       </c>
       <c r="F106">
-        <v>0.11895751953125</v>
+        <v>0.064453125</v>
       </c>
       <c r="G106">
-        <v>-0.9951171875</v>
+        <v>-0.99755859375</v>
       </c>
       <c r="H106">
-        <v>0.07708740234375</v>
+        <v>0.126220703125</v>
       </c>
       <c r="I106">
-        <v>0.11895751953125</v>
+        <v>0.064453125</v>
       </c>
       <c r="J106">
-        <v>-0.13330078125</v>
+        <v>-0.149169921875</v>
       </c>
       <c r="K106">
-        <v>-0.97119140625</v>
+        <v>-0.966796875</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4566,34 +4566,34 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1002197265625</v>
+        <v>0.225830078125</v>
       </c>
       <c r="C107">
-        <v>0.10394287109375</v>
+        <v>0.09478759765625</v>
       </c>
       <c r="D107">
-        <v>-0.024932861328125</v>
+        <v>-0.0142822265625</v>
       </c>
       <c r="E107">
-        <v>0.63671875</v>
+        <v>0.7626953125</v>
       </c>
       <c r="F107">
-        <v>0.03021240234375</v>
+        <v>0.115234375</v>
       </c>
       <c r="G107">
-        <v>-0.87939453125</v>
+        <v>-0.73779296875</v>
       </c>
       <c r="H107">
-        <v>0.0299835205078125</v>
+        <v>0.00807952880859375</v>
       </c>
       <c r="I107">
-        <v>0.03021240234375</v>
+        <v>0.115234375</v>
       </c>
       <c r="J107">
-        <v>-0.07177734375</v>
+        <v>-0.07818603515625</v>
       </c>
       <c r="K107">
-        <v>-0.90673828125</v>
+        <v>-0.943359375</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4601,34 +4601,34 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.043243408203125</v>
+        <v>-0.182861328125</v>
       </c>
       <c r="C108">
-        <v>-0.007106781005859375</v>
+        <v>-0.020050048828125</v>
       </c>
       <c r="D108">
-        <v>-0.03887939453125</v>
+        <v>-0.026519775390625</v>
       </c>
       <c r="E108">
-        <v>-0.345703125</v>
+        <v>-0.61376953125</v>
       </c>
       <c r="F108">
-        <v>0.10699462890625</v>
+        <v>0.0899658203125</v>
       </c>
       <c r="G108">
-        <v>-0.9609375</v>
+        <v>-0.96435546875</v>
       </c>
       <c r="H108">
-        <v>0.08648681640625</v>
+        <v>0.1357421875</v>
       </c>
       <c r="I108">
-        <v>0.10699462890625</v>
+        <v>0.0899658203125</v>
       </c>
       <c r="J108">
-        <v>-0.24169921875</v>
+        <v>-0.1558837890625</v>
       </c>
       <c r="K108">
-        <v>-0.99169921875</v>
+        <v>-0.9853515625</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4636,34 +4636,34 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.231689453125</v>
+        <v>0.1710205078125</v>
       </c>
       <c r="C109">
-        <v>0.0307159423828125</v>
+        <v>0.0279693603515625</v>
       </c>
       <c r="D109">
-        <v>0.0004103183746337891</v>
+        <v>-0.0231781005859375</v>
       </c>
       <c r="E109">
-        <v>-0.206298828125</v>
+        <v>-0.07861328125</v>
       </c>
       <c r="F109">
-        <v>-0.029754638671875</v>
+        <v>-0.08319091796875</v>
       </c>
       <c r="G109">
-        <v>-0.642578125</v>
+        <v>-0.8896484375</v>
       </c>
       <c r="H109">
-        <v>0.054962158203125</v>
+        <v>0.0264739990234375</v>
       </c>
       <c r="I109">
-        <v>-0.029754638671875</v>
+        <v>-0.08319091796875</v>
       </c>
       <c r="J109">
-        <v>-0.277587890625</v>
+        <v>-0.29248046875</v>
       </c>
       <c r="K109">
-        <v>-0.98828125</v>
+        <v>-0.97802734375</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4671,34 +4671,34 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.006641387939453125</v>
+        <v>0.046478271484375</v>
       </c>
       <c r="C110">
-        <v>-0.265380859375</v>
+        <v>-0.337646484375</v>
       </c>
       <c r="D110">
-        <v>-0.042633056640625</v>
+        <v>0.00298309326171875</v>
       </c>
       <c r="E110">
-        <v>-0.494384765625</v>
+        <v>-0.375732421875</v>
       </c>
       <c r="F110">
-        <v>0.113525390625</v>
+        <v>0.1898193359375</v>
       </c>
       <c r="G110">
-        <v>-0.96923828125</v>
+        <v>-0.9951171875</v>
       </c>
       <c r="H110">
-        <v>0.022674560546875</v>
+        <v>-0.01107025146484375</v>
       </c>
       <c r="I110">
-        <v>0.113525390625</v>
+        <v>0.1898193359375</v>
       </c>
       <c r="J110">
-        <v>0.110595703125</v>
+        <v>0.2366943359375</v>
       </c>
       <c r="K110">
-        <v>-0.98828125</v>
+        <v>-0.80224609375</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4706,34 +4706,34 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.093017578125</v>
+        <v>0.0662841796875</v>
       </c>
       <c r="C111">
-        <v>-0.146484375</v>
+        <v>-0.312744140625</v>
       </c>
       <c r="D111">
-        <v>0.08203125</v>
+        <v>0.08990478515625</v>
       </c>
       <c r="E111">
-        <v>-0.71484375</v>
+        <v>-0.7568359375</v>
       </c>
       <c r="F111">
-        <v>0.083740234375</v>
+        <v>0.12890625</v>
       </c>
       <c r="G111">
-        <v>-0.84716796875</v>
+        <v>-0.80517578125</v>
       </c>
       <c r="H111">
-        <v>0.054168701171875</v>
+        <v>0.00965118408203125</v>
       </c>
       <c r="I111">
-        <v>0.083740234375</v>
+        <v>0.12890625</v>
       </c>
       <c r="J111">
-        <v>0.06353759765625</v>
+        <v>0.01300048828125</v>
       </c>
       <c r="K111">
-        <v>0.98876953125</v>
+        <v>0.982421875</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4741,34 +4741,34 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.0513916015625</v>
+        <v>0.05291748046875</v>
       </c>
       <c r="C112">
-        <v>-0.31298828125</v>
+        <v>-0.30029296875</v>
       </c>
       <c r="D112">
-        <v>0.0784912109375</v>
+        <v>0.1031494140625</v>
       </c>
       <c r="E112">
-        <v>0.232666015625</v>
+        <v>-0.0909423828125</v>
       </c>
       <c r="F112">
-        <v>0.1434326171875</v>
+        <v>0.1282958984375</v>
       </c>
       <c r="G112">
-        <v>-0.85888671875</v>
+        <v>-0.7890625</v>
       </c>
       <c r="H112">
-        <v>-0.002729415893554688</v>
+        <v>0.022186279296875</v>
       </c>
       <c r="I112">
-        <v>0.1434326171875</v>
+        <v>0.1282958984375</v>
       </c>
       <c r="J112">
-        <v>-0.08648681640625</v>
+        <v>-0.1727294921875</v>
       </c>
       <c r="K112">
-        <v>-0.61328125</v>
+        <v>-0.71630859375</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4776,34 +4776,34 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.2418212890625</v>
+        <v>-0.1943359375</v>
       </c>
       <c r="C113">
-        <v>0.0256500244140625</v>
+        <v>0.0250396728515625</v>
       </c>
       <c r="D113">
-        <v>0.101806640625</v>
+        <v>0.08416748046875</v>
       </c>
       <c r="E113">
-        <v>-0.1898193359375</v>
+        <v>0.161376953125</v>
       </c>
       <c r="F113">
-        <v>0.0411376953125</v>
+        <v>0.036529541015625</v>
       </c>
       <c r="G113">
-        <v>-0.8173828125</v>
+        <v>-0.61328125</v>
       </c>
       <c r="H113">
-        <v>0.025665283203125</v>
+        <v>0.072509765625</v>
       </c>
       <c r="I113">
-        <v>0.0411376953125</v>
+        <v>0.036529541015625</v>
       </c>
       <c r="J113">
-        <v>-0.36669921875</v>
+        <v>-0.50390625</v>
       </c>
       <c r="K113">
-        <v>-0.91845703125</v>
+        <v>-0.88916015625</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4811,34 +4811,34 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.164794921875</v>
+        <v>0.358642578125</v>
       </c>
       <c r="C114">
-        <v>-0.04144287109375</v>
+        <v>-0.138427734375</v>
       </c>
       <c r="D114">
-        <v>0.11090087890625</v>
+        <v>0.077392578125</v>
       </c>
       <c r="E114">
-        <v>0.2413330078125</v>
+        <v>0.42919921875</v>
       </c>
       <c r="F114">
-        <v>0.203369140625</v>
+        <v>0.181884765625</v>
       </c>
       <c r="G114">
-        <v>-0.8330078125</v>
+        <v>-0.8994140625</v>
       </c>
       <c r="H114">
-        <v>-0.041412353515625</v>
+        <v>-0.03985595703125</v>
       </c>
       <c r="I114">
-        <v>0.203369140625</v>
+        <v>0.181884765625</v>
       </c>
       <c r="J114">
-        <v>-0.05419921875</v>
+        <v>-0.06494140625</v>
       </c>
       <c r="K114">
-        <v>-0.9931640625</v>
+        <v>-0.98828125</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4846,34 +4846,34 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.298095703125</v>
+        <v>-0.1910400390625</v>
       </c>
       <c r="C115">
-        <v>0.005313873291015625</v>
+        <v>0.001837730407714844</v>
       </c>
       <c r="D115">
-        <v>-0.0293121337890625</v>
+        <v>-0.0204925537109375</v>
       </c>
       <c r="E115">
-        <v>-0.5302734375</v>
+        <v>-0.2421875</v>
       </c>
       <c r="F115">
-        <v>0.1536865234375</v>
+        <v>0.1524658203125</v>
       </c>
       <c r="G115">
-        <v>-0.85400390625</v>
+        <v>-0.97119140625</v>
       </c>
       <c r="H115">
-        <v>-0.005260467529296875</v>
+        <v>0.05059814453125</v>
       </c>
       <c r="I115">
-        <v>0.1536865234375</v>
+        <v>0.1524658203125</v>
       </c>
       <c r="J115">
-        <v>-0.003690719604492188</v>
+        <v>-0.1734619140625</v>
       </c>
       <c r="K115">
-        <v>-0.91259765625</v>
+        <v>-0.83544921875</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4881,34 +4881,34 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.07952880859375</v>
+        <v>0.1622314453125</v>
       </c>
       <c r="C116">
-        <v>-0.1334228515625</v>
+        <v>-0.2890625</v>
       </c>
       <c r="D116">
-        <v>0.12261962890625</v>
+        <v>0.129638671875</v>
       </c>
       <c r="E116">
-        <v>-0.76953125</v>
+        <v>-0.77880859375</v>
       </c>
       <c r="F116">
-        <v>0.17822265625</v>
+        <v>0.1832275390625</v>
       </c>
       <c r="G116">
-        <v>-0.90625</v>
+        <v>-0.99072265625</v>
       </c>
       <c r="H116">
-        <v>0.052398681640625</v>
+        <v>0.045074462890625</v>
       </c>
       <c r="I116">
-        <v>0.17822265625</v>
+        <v>0.1832275390625</v>
       </c>
       <c r="J116">
-        <v>-0.07696533203125</v>
+        <v>-0.218994140625</v>
       </c>
       <c r="K116">
-        <v>-0.966796875</v>
+        <v>-0.99072265625</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4916,34 +4916,34 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.2291259765625</v>
+        <v>0.1695556640625</v>
       </c>
       <c r="C117">
-        <v>-0.1754150390625</v>
+        <v>-0.237548828125</v>
       </c>
       <c r="D117">
-        <v>0.02825927734375</v>
+        <v>0.0190277099609375</v>
       </c>
       <c r="E117">
-        <v>-0.424560546875</v>
+        <v>-0.6572265625</v>
       </c>
       <c r="F117">
-        <v>-0.0279388427734375</v>
+        <v>-0.01438140869140625</v>
       </c>
       <c r="G117">
-        <v>-0.6533203125</v>
+        <v>-0.8408203125</v>
       </c>
       <c r="H117">
-        <v>0.00286102294921875</v>
+        <v>-0.007587432861328125</v>
       </c>
       <c r="I117">
-        <v>-0.0279388427734375</v>
+        <v>-0.01438140869140625</v>
       </c>
       <c r="J117">
-        <v>0.0264434814453125</v>
+        <v>0.208740234375</v>
       </c>
       <c r="K117">
-        <v>-0.96240234375</v>
+        <v>-0.9814453125</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4951,34 +4951,34 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.439208984375</v>
+        <v>0.4091796875</v>
       </c>
       <c r="C118">
-        <v>0.0165252685546875</v>
+        <v>0.06781005859375</v>
       </c>
       <c r="D118">
-        <v>-0.048126220703125</v>
+        <v>-0.037109375</v>
       </c>
       <c r="E118">
-        <v>-0.62255859375</v>
+        <v>-0.66357421875</v>
       </c>
       <c r="F118">
-        <v>-0.08209228515625</v>
+        <v>-0.117431640625</v>
       </c>
       <c r="G118">
-        <v>-0.94677734375</v>
+        <v>-0.89892578125</v>
       </c>
       <c r="H118">
-        <v>0.005893707275390625</v>
+        <v>-0.0160369873046875</v>
       </c>
       <c r="I118">
-        <v>-0.08209228515625</v>
+        <v>-0.117431640625</v>
       </c>
       <c r="J118">
-        <v>0.329833984375</v>
+        <v>0.1473388671875</v>
       </c>
       <c r="K118">
-        <v>-0.97998046875</v>
+        <v>-0.97705078125</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4986,34 +4986,34 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1591796875</v>
+        <v>0.259765625</v>
       </c>
       <c r="C119">
-        <v>-0.119384765625</v>
+        <v>-0.12493896484375</v>
       </c>
       <c r="D119">
-        <v>0.06549072265625</v>
+        <v>0.0936279296875</v>
       </c>
       <c r="E119">
-        <v>-0.10302734375</v>
+        <v>0.092041015625</v>
       </c>
       <c r="F119">
-        <v>0.1048583984375</v>
+        <v>0.1632080078125</v>
       </c>
       <c r="G119">
-        <v>-0.943359375</v>
+        <v>-0.9501953125</v>
       </c>
       <c r="H119">
-        <v>0.056671142578125</v>
+        <v>0.03533935546875</v>
       </c>
       <c r="I119">
-        <v>0.1048583984375</v>
+        <v>0.1632080078125</v>
       </c>
       <c r="J119">
-        <v>-0.01300811767578125</v>
+        <v>-0.10894775390625</v>
       </c>
       <c r="K119">
-        <v>-0.85986328125</v>
+        <v>-0.921875</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5021,34 +5021,34 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.30712890625</v>
+        <v>0.273681640625</v>
       </c>
       <c r="C120">
-        <v>-0.1202392578125</v>
+        <v>-0.310791015625</v>
       </c>
       <c r="D120">
-        <v>-0.0229644775390625</v>
+        <v>-0.0291900634765625</v>
       </c>
       <c r="E120">
-        <v>-0.60009765625</v>
+        <v>-0.325927734375</v>
       </c>
       <c r="F120">
-        <v>0.046722412109375</v>
+        <v>0.043060302734375</v>
       </c>
       <c r="G120">
-        <v>-0.96533203125</v>
+        <v>-0.9736328125</v>
       </c>
       <c r="H120">
-        <v>0.04827880859375</v>
+        <v>0.04547119140625</v>
       </c>
       <c r="I120">
-        <v>0.046722412109375</v>
+        <v>0.043060302734375</v>
       </c>
       <c r="J120">
-        <v>0.047027587890625</v>
+        <v>0.07354736328125</v>
       </c>
       <c r="K120">
-        <v>-0.95263671875</v>
+        <v>-0.970703125</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5056,34 +5056,34 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.217529296875</v>
+        <v>-0.273681640625</v>
       </c>
       <c r="C121">
-        <v>0.159912109375</v>
+        <v>0.07427978515625</v>
       </c>
       <c r="D121">
-        <v>-0.02618408203125</v>
+        <v>-0.06689453125</v>
       </c>
       <c r="E121">
-        <v>-0.62890625</v>
+        <v>-0.6376953125</v>
       </c>
       <c r="F121">
-        <v>0.047576904296875</v>
+        <v>-0.001362800598144531</v>
       </c>
       <c r="G121">
-        <v>-0.84716796875</v>
+        <v>-0.822265625</v>
       </c>
       <c r="H121">
-        <v>0.12158203125</v>
+        <v>0.136962890625</v>
       </c>
       <c r="I121">
-        <v>0.047576904296875</v>
+        <v>-0.001362800598144531</v>
       </c>
       <c r="J121">
-        <v>-0.282958984375</v>
+        <v>-0.33056640625</v>
       </c>
       <c r="K121">
-        <v>-0.335205078125</v>
+        <v>-0.339599609375</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5091,34 +5091,34 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.2213134765625</v>
+        <v>-0.003709793090820312</v>
       </c>
       <c r="C122">
-        <v>-0.0438232421875</v>
+        <v>0.01849365234375</v>
       </c>
       <c r="D122">
-        <v>0.0272216796875</v>
+        <v>-0.034271240234375</v>
       </c>
       <c r="E122">
-        <v>-0.7802734375</v>
+        <v>-0.77734375</v>
       </c>
       <c r="F122">
-        <v>-0.048675537109375</v>
+        <v>0.0938720703125</v>
       </c>
       <c r="G122">
-        <v>-0.89697265625</v>
+        <v>-0.8564453125</v>
       </c>
       <c r="H122">
-        <v>0.10565185546875</v>
+        <v>0.1832275390625</v>
       </c>
       <c r="I122">
-        <v>-0.048675537109375</v>
+        <v>0.0938720703125</v>
       </c>
       <c r="J122">
-        <v>-0.28466796875</v>
+        <v>-0.222900390625</v>
       </c>
       <c r="K122">
-        <v>-0.93017578125</v>
+        <v>-0.9033203125</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5126,34 +5126,34 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0235443115234375</v>
+        <v>0.1956787109375</v>
       </c>
       <c r="C123">
-        <v>-0.2386474609375</v>
+        <v>-0.4296875</v>
       </c>
       <c r="D123">
-        <v>-0.003986358642578125</v>
+        <v>-0.004192352294921875</v>
       </c>
       <c r="E123">
-        <v>0.0389404296875</v>
+        <v>-0.031829833984375</v>
       </c>
       <c r="F123">
-        <v>0.0296783447265625</v>
+        <v>0.07464599609375</v>
       </c>
       <c r="G123">
-        <v>-0.96875</v>
+        <v>-0.943359375</v>
       </c>
       <c r="H123">
-        <v>0.001501083374023438</v>
+        <v>0.00173187255859375</v>
       </c>
       <c r="I123">
-        <v>0.0296783447265625</v>
+        <v>0.07464599609375</v>
       </c>
       <c r="J123">
-        <v>-0.361572265625</v>
+        <v>-0.61767578125</v>
       </c>
       <c r="K123">
-        <v>-0.90625</v>
+        <v>-0.96728515625</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5161,34 +5161,34 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0921630859375</v>
+        <v>0.06396484375</v>
       </c>
       <c r="C124">
-        <v>-0.197265625</v>
+        <v>-0.174560546875</v>
       </c>
       <c r="D124">
-        <v>-0.020477294921875</v>
+        <v>-0.0567626953125</v>
       </c>
       <c r="E124">
-        <v>0.6552734375</v>
+        <v>0.564453125</v>
       </c>
       <c r="F124">
-        <v>0.0859375</v>
+        <v>0.1573486328125</v>
       </c>
       <c r="G124">
-        <v>-0.99462890625</v>
+        <v>-0.99658203125</v>
       </c>
       <c r="H124">
-        <v>0.03619384765625</v>
+        <v>0.0557861328125</v>
       </c>
       <c r="I124">
-        <v>0.0859375</v>
+        <v>0.1573486328125</v>
       </c>
       <c r="J124">
-        <v>-0.1519775390625</v>
+        <v>-0.2437744140625</v>
       </c>
       <c r="K124">
-        <v>-0.98828125</v>
+        <v>-0.9853515625</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5196,34 +5196,34 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.252197265625</v>
+        <v>-0.3173828125</v>
       </c>
       <c r="C125">
-        <v>0.060333251953125</v>
+        <v>-0.09674072265625</v>
       </c>
       <c r="D125">
-        <v>0.058563232421875</v>
+        <v>0.09161376953125</v>
       </c>
       <c r="E125">
-        <v>-0.6103515625</v>
+        <v>-0.495849609375</v>
       </c>
       <c r="F125">
-        <v>0.13330078125</v>
+        <v>0.156494140625</v>
       </c>
       <c r="G125">
-        <v>-0.69189453125</v>
+        <v>-0.469482421875</v>
       </c>
       <c r="H125">
-        <v>0.07244873046875</v>
+        <v>0.06622314453125</v>
       </c>
       <c r="I125">
-        <v>0.13330078125</v>
+        <v>0.156494140625</v>
       </c>
       <c r="J125">
-        <v>-0.1544189453125</v>
+        <v>-0.41552734375</v>
       </c>
       <c r="K125">
-        <v>0.90771484375</v>
+        <v>0.496826171875</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5231,34 +5231,34 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.2724609375</v>
+        <v>0.472412109375</v>
       </c>
       <c r="C126">
-        <v>-0.1221923828125</v>
+        <v>-0.1395263671875</v>
       </c>
       <c r="D126">
-        <v>0.04644775390625</v>
+        <v>-0.016937255859375</v>
       </c>
       <c r="E126">
-        <v>-0.15966796875</v>
+        <v>-0.26708984375</v>
       </c>
       <c r="F126">
-        <v>0.111083984375</v>
+        <v>0.12939453125</v>
       </c>
       <c r="G126">
-        <v>-0.9794921875</v>
+        <v>-0.98828125</v>
       </c>
       <c r="H126">
-        <v>0.0185089111328125</v>
+        <v>0.035064697265625</v>
       </c>
       <c r="I126">
-        <v>0.111083984375</v>
+        <v>0.12939453125</v>
       </c>
       <c r="J126">
-        <v>-0.2152099609375</v>
+        <v>-0.1563720703125</v>
       </c>
       <c r="K126">
-        <v>-0.98486328125</v>
+        <v>-0.990234375</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5266,34 +5266,34 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.1146240234375</v>
+        <v>0.09124755859375</v>
       </c>
       <c r="C127">
-        <v>-0.10076904296875</v>
+        <v>-0.046783447265625</v>
       </c>
       <c r="D127">
-        <v>-0.00446319580078125</v>
+        <v>0.003450393676757812</v>
       </c>
       <c r="E127">
-        <v>-0.37451171875</v>
+        <v>-0.315185546875</v>
       </c>
       <c r="F127">
-        <v>0.0682373046875</v>
+        <v>0.09283447265625</v>
       </c>
       <c r="G127">
-        <v>-0.93896484375</v>
+        <v>-0.9521484375</v>
       </c>
       <c r="H127">
-        <v>0.045196533203125</v>
+        <v>0.073486328125</v>
       </c>
       <c r="I127">
-        <v>0.0682373046875</v>
+        <v>0.09283447265625</v>
       </c>
       <c r="J127">
-        <v>-0.28759765625</v>
+        <v>-0.53466796875</v>
       </c>
       <c r="K127">
-        <v>-0.951171875</v>
+        <v>-0.9873046875</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5301,34 +5301,34 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.135986328125</v>
+        <v>0.388916015625</v>
       </c>
       <c r="C128">
-        <v>-0.045379638671875</v>
+        <v>-0.19140625</v>
       </c>
       <c r="D128">
-        <v>0.0211181640625</v>
+        <v>-0.01190948486328125</v>
       </c>
       <c r="E128">
-        <v>-0.56201171875</v>
+        <v>-0.5947265625</v>
       </c>
       <c r="F128">
-        <v>0.058502197265625</v>
+        <v>0.1114501953125</v>
       </c>
       <c r="G128">
-        <v>-0.9345703125</v>
+        <v>-0.99072265625</v>
       </c>
       <c r="H128">
-        <v>0.0504150390625</v>
+        <v>0.11358642578125</v>
       </c>
       <c r="I128">
-        <v>0.058502197265625</v>
+        <v>0.1114501953125</v>
       </c>
       <c r="J128">
-        <v>0.1114501953125</v>
+        <v>0.044891357421875</v>
       </c>
       <c r="K128">
-        <v>-0.92578125</v>
+        <v>-0.82421875</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5336,34 +5336,34 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.552734375</v>
+        <v>0.63818359375</v>
       </c>
       <c r="C129">
-        <v>0.212890625</v>
+        <v>0.185302734375</v>
       </c>
       <c r="D129">
-        <v>-0.0247955322265625</v>
+        <v>-0.039947509765625</v>
       </c>
       <c r="E129">
-        <v>0.0902099609375</v>
+        <v>0.208984375</v>
       </c>
       <c r="F129">
-        <v>0.009185791015625</v>
+        <v>0.03778076171875</v>
       </c>
       <c r="G129">
-        <v>-0.68408203125</v>
+        <v>-0.7548828125</v>
       </c>
       <c r="H129">
-        <v>0.107666015625</v>
+        <v>0.1251220703125</v>
       </c>
       <c r="I129">
-        <v>0.009185791015625</v>
+        <v>0.03778076171875</v>
       </c>
       <c r="J129">
-        <v>-0.01116180419921875</v>
+        <v>0.0831298828125</v>
       </c>
       <c r="K129">
-        <v>-0.9873046875</v>
+        <v>-0.9970703125</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5371,34 +5371,34 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1478271484375</v>
+        <v>0.07318115234375</v>
       </c>
       <c r="C130">
-        <v>-0.1573486328125</v>
+        <v>-0.172607421875</v>
       </c>
       <c r="D130">
-        <v>-0.07861328125</v>
+        <v>-0.07293701171875</v>
       </c>
       <c r="E130">
-        <v>0.833984375</v>
+        <v>0.904296875</v>
       </c>
       <c r="F130">
-        <v>0.1142578125</v>
+        <v>0.2020263671875</v>
       </c>
       <c r="G130">
-        <v>-0.99755859375</v>
+        <v>-0.98828125</v>
       </c>
       <c r="H130">
-        <v>0.0455322265625</v>
+        <v>0.0092315673828125</v>
       </c>
       <c r="I130">
-        <v>0.1142578125</v>
+        <v>0.2020263671875</v>
       </c>
       <c r="J130">
-        <v>-0.09722900390625</v>
+        <v>0.0972900390625</v>
       </c>
       <c r="K130">
-        <v>-0.9228515625</v>
+        <v>-0.90087890625</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5406,34 +5406,34 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6767578125</v>
+        <v>0.63623046875</v>
       </c>
       <c r="C131">
-        <v>-0.1572265625</v>
+        <v>-0.1964111328125</v>
       </c>
       <c r="D131">
-        <v>-0.0004887580871582031</v>
+        <v>-0.016357421875</v>
       </c>
       <c r="E131">
-        <v>-0.6201171875</v>
+        <v>-0.9619140625</v>
       </c>
       <c r="F131">
-        <v>0.1488037109375</v>
+        <v>0.1458740234375</v>
       </c>
       <c r="G131">
-        <v>-0.95556640625</v>
+        <v>-0.96044921875</v>
       </c>
       <c r="H131">
-        <v>0.1087646484375</v>
+        <v>0.1275634765625</v>
       </c>
       <c r="I131">
-        <v>0.1488037109375</v>
+        <v>0.1458740234375</v>
       </c>
       <c r="J131">
-        <v>-0.024139404296875</v>
+        <v>-0.322265625</v>
       </c>
       <c r="K131">
-        <v>-0.986328125</v>
+        <v>-0.99658203125</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5441,34 +5441,34 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.134033203125</v>
+        <v>-0.03289794921875</v>
       </c>
       <c r="C132">
-        <v>-0.01309967041015625</v>
+        <v>-0.0472412109375</v>
       </c>
       <c r="D132">
-        <v>0.032470703125</v>
+        <v>0.03564453125</v>
       </c>
       <c r="E132">
-        <v>-0.313720703125</v>
+        <v>-0.31103515625</v>
       </c>
       <c r="F132">
-        <v>-0.002206802368164062</v>
+        <v>-0.00396728515625</v>
       </c>
       <c r="G132">
-        <v>-0.0833740234375</v>
+        <v>-0.8017578125</v>
       </c>
       <c r="H132">
-        <v>0.08160400390625</v>
+        <v>0.1085205078125</v>
       </c>
       <c r="I132">
-        <v>-0.002206802368164062</v>
+        <v>-0.00396728515625</v>
       </c>
       <c r="J132">
-        <v>-0.348388671875</v>
+        <v>-0.36083984375</v>
       </c>
       <c r="K132">
-        <v>-0.9150390625</v>
+        <v>-0.79736328125</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5476,34 +5476,34 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.2281494140625</v>
+        <v>0.21923828125</v>
       </c>
       <c r="C133">
-        <v>-0.1566162109375</v>
+        <v>-0.0968017578125</v>
       </c>
       <c r="D133">
-        <v>-0.01056671142578125</v>
+        <v>-0.033843994140625</v>
       </c>
       <c r="E133">
-        <v>-0.57958984375</v>
+        <v>-0.86083984375</v>
       </c>
       <c r="F133">
-        <v>0.0243988037109375</v>
+        <v>0.0140228271484375</v>
       </c>
       <c r="G133">
-        <v>-0.8876953125</v>
+        <v>-0.8427734375</v>
       </c>
       <c r="H133">
-        <v>0.01065826416015625</v>
+        <v>0.049072265625</v>
       </c>
       <c r="I133">
-        <v>0.0243988037109375</v>
+        <v>0.0140228271484375</v>
       </c>
       <c r="J133">
-        <v>0.09906005859375</v>
+        <v>0.1634521484375</v>
       </c>
       <c r="K133">
-        <v>-0.72021484375</v>
+        <v>-0.892578125</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5511,34 +5511,34 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.330322265625</v>
+        <v>0.400146484375</v>
       </c>
       <c r="C134">
-        <v>-0.154296875</v>
+        <v>-0.216064453125</v>
       </c>
       <c r="D134">
-        <v>0.029571533203125</v>
+        <v>0.00962066650390625</v>
       </c>
       <c r="E134">
-        <v>-0.1505126953125</v>
+        <v>-0.779296875</v>
       </c>
       <c r="F134">
-        <v>0.2000732421875</v>
+        <v>0.2469482421875</v>
       </c>
       <c r="G134">
-        <v>-0.95947265625</v>
+        <v>-0.96875</v>
       </c>
       <c r="H134">
-        <v>0.07879638671875</v>
+        <v>0.0870361328125</v>
       </c>
       <c r="I134">
-        <v>0.2000732421875</v>
+        <v>0.2469482421875</v>
       </c>
       <c r="J134">
-        <v>0.1527099609375</v>
+        <v>0.07330322265625</v>
       </c>
       <c r="K134">
-        <v>0.79443359375</v>
+        <v>0.364501953125</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5546,34 +5546,34 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.2230224609375</v>
+        <v>0.368408203125</v>
       </c>
       <c r="C135">
-        <v>-0.18603515625</v>
+        <v>-0.31298828125</v>
       </c>
       <c r="D135">
-        <v>0.08251953125</v>
+        <v>0.07122802734375</v>
       </c>
       <c r="E135">
-        <v>-0.9150390625</v>
+        <v>-0.8583984375</v>
       </c>
       <c r="F135">
-        <v>0.1451416015625</v>
+        <v>0.1876220703125</v>
       </c>
       <c r="G135">
-        <v>-0.96630859375</v>
+        <v>-0.9912109375</v>
       </c>
       <c r="H135">
-        <v>0.14501953125</v>
+        <v>0.1876220703125</v>
       </c>
       <c r="I135">
-        <v>0.1451416015625</v>
+        <v>0.1876220703125</v>
       </c>
       <c r="J135">
-        <v>0.00437164306640625</v>
+        <v>-0.1121826171875</v>
       </c>
       <c r="K135">
-        <v>-0.99609375</v>
+        <v>-0.9560546875</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5581,34 +5581,34 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.156005859375</v>
+        <v>0.2310791015625</v>
       </c>
       <c r="C136">
-        <v>-0.019256591796875</v>
+        <v>-0.0096282958984375</v>
       </c>
       <c r="D136">
-        <v>0.0276031494140625</v>
+        <v>0.05316162109375</v>
       </c>
       <c r="E136">
-        <v>0.78857421875</v>
+        <v>0.96826171875</v>
       </c>
       <c r="F136">
-        <v>0.1431884765625</v>
+        <v>0.1668701171875</v>
       </c>
       <c r="G136">
-        <v>-0.80712890625</v>
+        <v>-0.95361328125</v>
       </c>
       <c r="H136">
-        <v>-0.0241851806640625</v>
+        <v>-0.036895751953125</v>
       </c>
       <c r="I136">
-        <v>0.1431884765625</v>
+        <v>0.1668701171875</v>
       </c>
       <c r="J136">
-        <v>0.0517578125</v>
+        <v>0.078369140625</v>
       </c>
       <c r="K136">
-        <v>-0.9541015625</v>
+        <v>-0.89501953125</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5616,34 +5616,34 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.05364990234375</v>
+        <v>-0.11376953125</v>
       </c>
       <c r="C137">
-        <v>-0.1676025390625</v>
+        <v>-0.1688232421875</v>
       </c>
       <c r="D137">
-        <v>0.001684188842773438</v>
+        <v>-0.01146697998046875</v>
       </c>
       <c r="E137">
-        <v>-0.671875</v>
+        <v>-0.420166015625</v>
       </c>
       <c r="F137">
-        <v>0.10040283203125</v>
+        <v>0.103271484375</v>
       </c>
       <c r="G137">
-        <v>-0.63623046875</v>
+        <v>-0.85693359375</v>
       </c>
       <c r="H137">
-        <v>0.0170745849609375</v>
+        <v>0.05059814453125</v>
       </c>
       <c r="I137">
-        <v>0.10040283203125</v>
+        <v>0.103271484375</v>
       </c>
       <c r="J137">
-        <v>0.10260009765625</v>
+        <v>-0.270263671875</v>
       </c>
       <c r="K137">
-        <v>-0.962890625</v>
+        <v>-0.923828125</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5651,34 +5651,34 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0670166015625</v>
+        <v>0.1435546875</v>
       </c>
       <c r="C138">
-        <v>-0.135986328125</v>
+        <v>-0.292236328125</v>
       </c>
       <c r="D138">
-        <v>0.00861358642578125</v>
+        <v>0.0074920654296875</v>
       </c>
       <c r="E138">
-        <v>-0.484375</v>
+        <v>-0.307373046875</v>
       </c>
       <c r="F138">
-        <v>-0.0196380615234375</v>
+        <v>0.033050537109375</v>
       </c>
       <c r="G138">
-        <v>-0.92626953125</v>
+        <v>-0.927734375</v>
       </c>
       <c r="H138">
-        <v>0.0242156982421875</v>
+        <v>-0.0250701904296875</v>
       </c>
       <c r="I138">
-        <v>-0.0196380615234375</v>
+        <v>0.033050537109375</v>
       </c>
       <c r="J138">
-        <v>0.24658203125</v>
+        <v>0.18603515625</v>
       </c>
       <c r="K138">
-        <v>-0.28857421875</v>
+        <v>0.1453857421875</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5686,34 +5686,34 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.00472259521484375</v>
+        <v>-0.02685546875</v>
       </c>
       <c r="C139">
-        <v>-0.06280517578125</v>
+        <v>-0.1336669921875</v>
       </c>
       <c r="D139">
-        <v>0.06109619140625</v>
+        <v>0.08941650390625</v>
       </c>
       <c r="E139">
-        <v>0.791015625</v>
+        <v>0.8564453125</v>
       </c>
       <c r="F139">
-        <v>0.171142578125</v>
+        <v>0.241943359375</v>
       </c>
       <c r="G139">
-        <v>-0.935546875</v>
+        <v>-0.8603515625</v>
       </c>
       <c r="H139">
-        <v>0.029022216796875</v>
+        <v>0.050506591796875</v>
       </c>
       <c r="I139">
-        <v>0.171142578125</v>
+        <v>0.241943359375</v>
       </c>
       <c r="J139">
-        <v>0.302001953125</v>
+        <v>0.045867919921875</v>
       </c>
       <c r="K139">
-        <v>-0.8388671875</v>
+        <v>-0.9599609375</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5721,34 +5721,34 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.16162109375</v>
+        <v>-0.17724609375</v>
       </c>
       <c r="C140">
-        <v>0.0155792236328125</v>
+        <v>0.08782958984375</v>
       </c>
       <c r="D140">
-        <v>0.0148162841796875</v>
+        <v>0.01273345947265625</v>
       </c>
       <c r="E140">
-        <v>-0.62109375</v>
+        <v>-0.286865234375</v>
       </c>
       <c r="F140">
-        <v>0.00586700439453125</v>
+        <v>0.005626678466796875</v>
       </c>
       <c r="G140">
-        <v>-0.8427734375</v>
+        <v>-0.94580078125</v>
       </c>
       <c r="H140">
-        <v>0.0170745849609375</v>
+        <v>0.06494140625</v>
       </c>
       <c r="I140">
-        <v>0.00586700439453125</v>
+        <v>0.005626678466796875</v>
       </c>
       <c r="J140">
-        <v>-0.333740234375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="K140">
-        <v>-0.88330078125</v>
+        <v>-0.76220703125</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5756,34 +5756,34 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5712890625</v>
+        <v>0.313232421875</v>
       </c>
       <c r="C141">
-        <v>-0.236572265625</v>
+        <v>-0.21630859375</v>
       </c>
       <c r="D141">
-        <v>0.055145263671875</v>
+        <v>0.06854248046875</v>
       </c>
       <c r="E141">
-        <v>-0.716796875</v>
+        <v>-0.896484375</v>
       </c>
       <c r="F141">
-        <v>0.1737060546875</v>
+        <v>0.2548828125</v>
       </c>
       <c r="G141">
-        <v>-0.9736328125</v>
+        <v>-0.9541015625</v>
       </c>
       <c r="H141">
-        <v>0.0987548828125</v>
+        <v>0.15185546875</v>
       </c>
       <c r="I141">
-        <v>0.1737060546875</v>
+        <v>0.2548828125</v>
       </c>
       <c r="J141">
-        <v>-0.409423828125</v>
+        <v>-0.1629638671875</v>
       </c>
       <c r="K141">
-        <v>-0.99560546875</v>
+        <v>-0.95556640625</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5791,34 +5791,34 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.19287109375</v>
+        <v>0.34326171875</v>
       </c>
       <c r="C142">
-        <v>-0.185302734375</v>
+        <v>-0.1910400390625</v>
       </c>
       <c r="D142">
-        <v>-0.00860595703125</v>
+        <v>-0.019195556640625</v>
       </c>
       <c r="E142">
-        <v>0.10394287109375</v>
+        <v>0.180908203125</v>
       </c>
       <c r="F142">
-        <v>0.033050537109375</v>
+        <v>-0.0158233642578125</v>
       </c>
       <c r="G142">
-        <v>-0.9921875</v>
+        <v>-0.99560546875</v>
       </c>
       <c r="H142">
-        <v>0.01983642578125</v>
+        <v>0.03973388671875</v>
       </c>
       <c r="I142">
-        <v>0.033050537109375</v>
+        <v>-0.0158233642578125</v>
       </c>
       <c r="J142">
-        <v>-0.1993408203125</v>
+        <v>-0.40185546875</v>
       </c>
       <c r="K142">
-        <v>-0.98388671875</v>
+        <v>-0.994140625</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5826,34 +5826,34 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.1328125</v>
+        <v>0.0941162109375</v>
       </c>
       <c r="C143">
-        <v>-0.04779052734375</v>
+        <v>-0.08062744140625</v>
       </c>
       <c r="D143">
-        <v>-0.0799560546875</v>
+        <v>-0.08380126953125</v>
       </c>
       <c r="E143">
-        <v>0.70263671875</v>
+        <v>0.65478515625</v>
       </c>
       <c r="F143">
-        <v>0.10577392578125</v>
+        <v>0.1783447265625</v>
       </c>
       <c r="G143">
-        <v>-0.97119140625</v>
+        <v>-0.9814453125</v>
       </c>
       <c r="H143">
-        <v>0.003168106079101562</v>
+        <v>0.007129669189453125</v>
       </c>
       <c r="I143">
-        <v>0.10577392578125</v>
+        <v>0.1783447265625</v>
       </c>
       <c r="J143">
-        <v>-0.1328125</v>
+        <v>-0.277099609375</v>
       </c>
       <c r="K143">
-        <v>-0.9228515625</v>
+        <v>-0.9814453125</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5861,34 +5861,34 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.2391357421875</v>
+        <v>0.346923828125</v>
       </c>
       <c r="C144">
-        <v>-0.11273193359375</v>
+        <v>-0.2091064453125</v>
       </c>
       <c r="D144">
-        <v>0.01324462890625</v>
+        <v>-0.02288818359375</v>
       </c>
       <c r="E144">
-        <v>-0.59521484375</v>
+        <v>-0.8203125</v>
       </c>
       <c r="F144">
-        <v>0.11376953125</v>
+        <v>0.12939453125</v>
       </c>
       <c r="G144">
-        <v>-0.9228515625</v>
+        <v>-0.99853515625</v>
       </c>
       <c r="H144">
-        <v>0.118408203125</v>
+        <v>0.1568603515625</v>
       </c>
       <c r="I144">
-        <v>0.11376953125</v>
+        <v>0.12939453125</v>
       </c>
       <c r="J144">
-        <v>0.05804443359375</v>
+        <v>0.2259521484375</v>
       </c>
       <c r="K144">
-        <v>-0.98876953125</v>
+        <v>-0.9755859375</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5896,34 +5896,34 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.1854248046875</v>
+        <v>0.07159423828125</v>
       </c>
       <c r="C145">
-        <v>-0.1697998046875</v>
+        <v>-0.11151123046875</v>
       </c>
       <c r="D145">
-        <v>0.031219482421875</v>
+        <v>0.0222320556640625</v>
       </c>
       <c r="E145">
-        <v>-0.7568359375</v>
+        <v>-0.17919921875</v>
       </c>
       <c r="F145">
-        <v>-0.044464111328125</v>
+        <v>-0.10626220703125</v>
       </c>
       <c r="G145">
-        <v>-0.86328125</v>
+        <v>-0.7275390625</v>
       </c>
       <c r="H145">
-        <v>0.021331787109375</v>
+        <v>-0.0167083740234375</v>
       </c>
       <c r="I145">
-        <v>-0.044464111328125</v>
+        <v>-0.10626220703125</v>
       </c>
       <c r="J145">
-        <v>-0.17138671875</v>
+        <v>-0.1446533203125</v>
       </c>
       <c r="K145">
-        <v>-0.97021484375</v>
+        <v>-0.9716796875</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5931,34 +5931,34 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1568603515625</v>
+        <v>0.08905029296875</v>
       </c>
       <c r="C146">
-        <v>-0.289306640625</v>
+        <v>-0.298583984375</v>
       </c>
       <c r="D146">
-        <v>0.0767822265625</v>
+        <v>0.038543701171875</v>
       </c>
       <c r="E146">
-        <v>-0.6728515625</v>
+        <v>-0.302978515625</v>
       </c>
       <c r="F146">
-        <v>0.0784912109375</v>
+        <v>0.1309814453125</v>
       </c>
       <c r="G146">
-        <v>-0.93017578125</v>
+        <v>-0.39501953125</v>
       </c>
       <c r="H146">
-        <v>0.0310211181640625</v>
+        <v>0.005077362060546875</v>
       </c>
       <c r="I146">
-        <v>0.0784912109375</v>
+        <v>0.1309814453125</v>
       </c>
       <c r="J146">
-        <v>0.0965576171875</v>
+        <v>0.1212158203125</v>
       </c>
       <c r="K146">
-        <v>-0.85009765625</v>
+        <v>0.184326171875</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5966,34 +5966,34 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1162109375</v>
+        <v>0.015716552734375</v>
       </c>
       <c r="C147">
-        <v>-0.1556396484375</v>
+        <v>-0.2108154296875</v>
       </c>
       <c r="D147">
-        <v>0.0176544189453125</v>
+        <v>0.0479736328125</v>
       </c>
       <c r="E147">
-        <v>0.51220703125</v>
+        <v>0.76904296875</v>
       </c>
       <c r="F147">
-        <v>0.2000732421875</v>
+        <v>0.285400390625</v>
       </c>
       <c r="G147">
-        <v>-0.9931640625</v>
+        <v>-0.978515625</v>
       </c>
       <c r="H147">
-        <v>0.0202484130859375</v>
+        <v>0.035736083984375</v>
       </c>
       <c r="I147">
-        <v>0.2000732421875</v>
+        <v>0.285400390625</v>
       </c>
       <c r="J147">
-        <v>-0.2340087890625</v>
+        <v>-0.245361328125</v>
       </c>
       <c r="K147">
-        <v>-0.994140625</v>
+        <v>-0.98828125</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6001,34 +6001,34 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1700439453125</v>
+        <v>0.075927734375</v>
       </c>
       <c r="C148">
-        <v>-0.062225341796875</v>
+        <v>-0.10870361328125</v>
       </c>
       <c r="D148">
-        <v>-0.06097412109375</v>
+        <v>-0.06463623046875</v>
       </c>
       <c r="E148">
-        <v>0.438720703125</v>
+        <v>0.685546875</v>
       </c>
       <c r="F148">
-        <v>0.1160888671875</v>
+        <v>0.14404296875</v>
       </c>
       <c r="G148">
-        <v>-0.9775390625</v>
+        <v>-0.951171875</v>
       </c>
       <c r="H148">
-        <v>0.048126220703125</v>
+        <v>0.054168701171875</v>
       </c>
       <c r="I148">
-        <v>0.1160888671875</v>
+        <v>0.14404296875</v>
       </c>
       <c r="J148">
-        <v>-0.23681640625</v>
+        <v>-0.05889892578125</v>
       </c>
       <c r="K148">
-        <v>-0.9345703125</v>
+        <v>-0.9013671875</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6036,34 +6036,34 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.380126953125</v>
+        <v>-0.0323486328125</v>
       </c>
       <c r="C149">
+        <v>-0.1893310546875</v>
+      </c>
+      <c r="D149">
+        <v>0.045013427734375</v>
+      </c>
+      <c r="E149">
         <v>-0.1475830078125</v>
       </c>
-      <c r="D149">
-        <v>-0.027984619140625</v>
-      </c>
-      <c r="E149">
-        <v>-0.429931640625</v>
-      </c>
       <c r="F149">
-        <v>0.129638671875</v>
+        <v>0.146240234375</v>
       </c>
       <c r="G149">
-        <v>-0.99169921875</v>
+        <v>-0.96435546875</v>
       </c>
       <c r="H149">
-        <v>-0.0006923675537109375</v>
+        <v>0.00942230224609375</v>
       </c>
       <c r="I149">
-        <v>0.129638671875</v>
+        <v>0.146240234375</v>
       </c>
       <c r="J149">
-        <v>-0.346435546875</v>
+        <v>-0.363525390625</v>
       </c>
       <c r="K149">
-        <v>-0.9482421875</v>
+        <v>-0.982421875</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -6071,34 +6071,34 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.054595947265625</v>
+        <v>-0.1365966796875</v>
       </c>
       <c r="C150">
-        <v>-0.1788330078125</v>
+        <v>-0.41796875</v>
       </c>
       <c r="D150">
-        <v>0.0099334716796875</v>
+        <v>0.0223541259765625</v>
       </c>
       <c r="E150">
-        <v>-0.399169921875</v>
+        <v>-0.49267578125</v>
       </c>
       <c r="F150">
-        <v>0.14794921875</v>
+        <v>0.106201171875</v>
       </c>
       <c r="G150">
-        <v>-0.9677734375</v>
+        <v>-0.95654296875</v>
       </c>
       <c r="H150">
-        <v>0.031707763671875</v>
+        <v>0.002149581909179688</v>
       </c>
       <c r="I150">
-        <v>0.14794921875</v>
+        <v>0.106201171875</v>
       </c>
       <c r="J150">
-        <v>0.061431884765625</v>
+        <v>0.0316162109375</v>
       </c>
       <c r="K150">
-        <v>0.56103515625</v>
+        <v>0.78955078125</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6106,34 +6106,34 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.3701171875</v>
+        <v>0.1676025390625</v>
       </c>
       <c r="C151">
-        <v>-0.1732177734375</v>
+        <v>-0.2149658203125</v>
       </c>
       <c r="D151">
-        <v>-0.0268707275390625</v>
+        <v>-0.0802001953125</v>
       </c>
       <c r="E151">
-        <v>0.634765625</v>
+        <v>0.76416015625</v>
       </c>
       <c r="F151">
-        <v>0.079345703125</v>
+        <v>0.1453857421875</v>
       </c>
       <c r="G151">
-        <v>-0.98193359375</v>
+        <v>-0.994140625</v>
       </c>
       <c r="H151">
-        <v>0.037261962890625</v>
+        <v>0.048980712890625</v>
       </c>
       <c r="I151">
-        <v>0.079345703125</v>
+        <v>0.1453857421875</v>
       </c>
       <c r="J151">
-        <v>-0.018280029296875</v>
+        <v>-0.020416259765625</v>
       </c>
       <c r="K151">
-        <v>-0.96337890625</v>
+        <v>-0.8857421875</v>
       </c>
     </row>
   </sheetData>
